--- a/db/dui_rate_data_withState.xlsx
+++ b/db/dui_rate_data_withState.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="38400" windowHeight="19820" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19820" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="FO_C" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="57">
   <si>
     <t>COUNTY</t>
   </si>
@@ -747,11 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:U2"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3689,781 +3689,716 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0.70730000000000004</v>
       </c>
       <c r="C46" s="11">
-        <v>0.7</v>
+        <v>0.71220000000000006</v>
       </c>
       <c r="D46" s="11">
-        <v>0.6522</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="E46" s="11">
-        <v>0.68179999999999996</v>
+        <v>0.70320000000000005</v>
       </c>
       <c r="F46" s="11">
-        <v>1</v>
+        <v>0.7651</v>
       </c>
       <c r="G46" s="11">
-        <v>0.9</v>
+        <v>0.68359999999999999</v>
       </c>
       <c r="H46" s="11">
-        <v>0.88890000000000002</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="I46" s="11">
+        <v>0.748</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="K46" s="11">
         <v>0.8</v>
       </c>
-      <c r="J46" s="11">
-        <v>1</v>
-      </c>
-      <c r="K46" s="11">
-        <v>1</v>
-      </c>
       <c r="L46" s="11">
-        <v>0.75</v>
+        <v>0.85440000000000005</v>
       </c>
       <c r="M46" s="11">
-        <v>0.5</v>
+        <v>0.76919999999999999</v>
       </c>
       <c r="N46" s="11">
-        <v>1</v>
+        <v>0.83209999999999995</v>
       </c>
       <c r="O46" s="11">
-        <v>1</v>
+        <v>0.80130000000000001</v>
       </c>
       <c r="P46" s="11">
-        <v>1</v>
+        <v>0.79069999999999996</v>
       </c>
       <c r="Q46" s="11">
-        <v>0.625</v>
+        <v>0.80110000000000003</v>
       </c>
       <c r="R46" s="11">
-        <v>0.6</v>
+        <v>0.74690000000000001</v>
       </c>
       <c r="S46" s="11">
-        <v>1</v>
-      </c>
-      <c r="T46" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="U46" s="10" t="s">
-        <v>55</v>
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0.79779999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="11">
-        <v>0.70730000000000004</v>
+        <v>0.72629999999999995</v>
       </c>
       <c r="C47" s="11">
-        <v>0.71220000000000006</v>
+        <v>0.69179999999999997</v>
       </c>
       <c r="D47" s="11">
-        <v>0.63700000000000001</v>
+        <v>0.76290000000000002</v>
       </c>
       <c r="E47" s="11">
-        <v>0.70320000000000005</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="F47" s="11">
-        <v>0.7651</v>
+        <v>0.7792</v>
       </c>
       <c r="G47" s="11">
-        <v>0.68359999999999999</v>
+        <v>0.77939999999999998</v>
       </c>
       <c r="H47" s="11">
-        <v>0.75490000000000002</v>
+        <v>0.73229999999999995</v>
       </c>
       <c r="I47" s="11">
-        <v>0.748</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="J47" s="11">
-        <v>0.84570000000000001</v>
+        <v>0.72609999999999997</v>
       </c>
       <c r="K47" s="11">
-        <v>0.8</v>
+        <v>0.73850000000000005</v>
       </c>
       <c r="L47" s="11">
-        <v>0.85440000000000005</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="M47" s="11">
-        <v>0.76919999999999999</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="N47" s="11">
-        <v>0.83209999999999995</v>
+        <v>0.78580000000000005</v>
       </c>
       <c r="O47" s="11">
-        <v>0.80130000000000001</v>
+        <v>0.7671</v>
       </c>
       <c r="P47" s="11">
-        <v>0.79069999999999996</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="Q47" s="11">
-        <v>0.80110000000000003</v>
+        <v>0.77880000000000005</v>
       </c>
       <c r="R47" s="11">
-        <v>0.74690000000000001</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="S47" s="11">
-        <v>0.86519999999999997</v>
+        <v>0.81830000000000003</v>
       </c>
       <c r="T47" s="11">
-        <v>0.86539999999999995</v>
+        <v>0.80520000000000003</v>
       </c>
       <c r="U47" s="11">
-        <v>0.79779999999999995</v>
+        <v>0.82779999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="11">
-        <v>0.72629999999999995</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="C48" s="11">
-        <v>0.69179999999999997</v>
+        <v>0.79410000000000003</v>
       </c>
       <c r="D48" s="11">
-        <v>0.76290000000000002</v>
+        <v>0.84550000000000003</v>
       </c>
       <c r="E48" s="11">
-        <v>0.76500000000000001</v>
+        <v>0.75719999999999998</v>
       </c>
       <c r="F48" s="11">
-        <v>0.7792</v>
+        <v>0.66139999999999999</v>
       </c>
       <c r="G48" s="11">
-        <v>0.77939999999999998</v>
+        <v>0.7137</v>
       </c>
       <c r="H48" s="11">
-        <v>0.73229999999999995</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="I48" s="11">
-        <v>0.70589999999999997</v>
+        <v>0.752</v>
       </c>
       <c r="J48" s="11">
-        <v>0.72609999999999997</v>
+        <v>0.76629999999999998</v>
       </c>
       <c r="K48" s="11">
-        <v>0.73850000000000005</v>
+        <v>0.86040000000000005</v>
       </c>
       <c r="L48" s="11">
-        <v>0.76639999999999997</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="M48" s="11">
-        <v>0.76559999999999995</v>
+        <v>0.84940000000000004</v>
       </c>
       <c r="N48" s="11">
-        <v>0.78580000000000005</v>
+        <v>0.84489999999999998</v>
       </c>
       <c r="O48" s="11">
-        <v>0.7671</v>
+        <v>0.86609999999999998</v>
       </c>
       <c r="P48" s="11">
-        <v>0.81299999999999994</v>
+        <v>0.81879999999999997</v>
       </c>
       <c r="Q48" s="11">
-        <v>0.77880000000000005</v>
+        <v>0.86780000000000002</v>
       </c>
       <c r="R48" s="11">
-        <v>0.82599999999999996</v>
+        <v>0.87290000000000001</v>
       </c>
       <c r="S48" s="11">
-        <v>0.81830000000000003</v>
+        <v>0.86409999999999998</v>
       </c>
       <c r="T48" s="11">
-        <v>0.80520000000000003</v>
-      </c>
-      <c r="U48" s="11">
-        <v>0.82779999999999998</v>
+        <v>0.87790000000000001</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="11">
-        <v>0.63329999999999997</v>
+        <v>0.27260000000000001</v>
       </c>
       <c r="C49" s="11">
-        <v>0.79410000000000003</v>
+        <v>0.3095</v>
       </c>
       <c r="D49" s="11">
-        <v>0.84550000000000003</v>
+        <v>0.4133</v>
       </c>
       <c r="E49" s="11">
-        <v>0.75719999999999998</v>
+        <v>0.43280000000000002</v>
       </c>
       <c r="F49" s="11">
-        <v>0.66139999999999999</v>
+        <v>0.47460000000000002</v>
       </c>
       <c r="G49" s="11">
-        <v>0.7137</v>
+        <v>0.4385</v>
       </c>
       <c r="H49" s="11">
-        <v>0.73340000000000005</v>
+        <v>0.36070000000000002</v>
       </c>
       <c r="I49" s="11">
-        <v>0.752</v>
+        <v>0.32769999999999999</v>
       </c>
       <c r="J49" s="11">
-        <v>0.76629999999999998</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="K49" s="11">
-        <v>0.86040000000000005</v>
+        <v>0.71050000000000002</v>
       </c>
       <c r="L49" s="11">
-        <v>0.83099999999999996</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="M49" s="11">
-        <v>0.84940000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="N49" s="11">
-        <v>0.84489999999999998</v>
+        <v>0.55069999999999997</v>
       </c>
       <c r="O49" s="11">
-        <v>0.86609999999999998</v>
+        <v>0.57189999999999996</v>
       </c>
       <c r="P49" s="11">
-        <v>0.81879999999999997</v>
+        <v>0.61309999999999998</v>
       </c>
       <c r="Q49" s="11">
-        <v>0.86780000000000002</v>
+        <v>0.64659999999999995</v>
       </c>
       <c r="R49" s="11">
-        <v>0.87290000000000001</v>
+        <v>0.69589999999999996</v>
       </c>
       <c r="S49" s="11">
-        <v>0.86409999999999998</v>
+        <v>0.71179999999999999</v>
       </c>
       <c r="T49" s="11">
-        <v>0.87790000000000001</v>
-      </c>
-      <c r="U49" s="10" t="s">
-        <v>55</v>
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="U49" s="11">
+        <v>0.85019999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="11">
-        <v>0.27260000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C50" s="11">
-        <v>0.3095</v>
+        <v>0.75290000000000001</v>
       </c>
       <c r="D50" s="11">
-        <v>0.4133</v>
+        <v>0.6381</v>
       </c>
       <c r="E50" s="11">
-        <v>0.43280000000000002</v>
+        <v>0.70630000000000004</v>
       </c>
       <c r="F50" s="11">
-        <v>0.47460000000000002</v>
+        <v>0.65149999999999997</v>
       </c>
       <c r="G50" s="11">
-        <v>0.4385</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="H50" s="11">
-        <v>0.36070000000000002</v>
+        <v>0.74609999999999999</v>
       </c>
       <c r="I50" s="11">
-        <v>0.32769999999999999</v>
+        <v>0.64859999999999995</v>
       </c>
       <c r="J50" s="11">
-        <v>0.31540000000000001</v>
+        <v>0.69669999999999999</v>
       </c>
       <c r="K50" s="11">
-        <v>0.71050000000000002</v>
+        <v>0.81310000000000004</v>
       </c>
       <c r="L50" s="11">
-        <v>0.50890000000000002</v>
+        <v>0.79549999999999998</v>
       </c>
       <c r="M50" s="11">
-        <v>0.54600000000000004</v>
+        <v>0.83779999999999999</v>
       </c>
       <c r="N50" s="11">
-        <v>0.55069999999999997</v>
+        <v>0.84250000000000003</v>
       </c>
       <c r="O50" s="11">
-        <v>0.57189999999999996</v>
+        <v>0.89319999999999999</v>
       </c>
       <c r="P50" s="11">
-        <v>0.61309999999999998</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="Q50" s="11">
-        <v>0.64659999999999995</v>
+        <v>0.73019999999999996</v>
       </c>
       <c r="R50" s="11">
-        <v>0.69589999999999996</v>
+        <v>0.74660000000000004</v>
       </c>
       <c r="S50" s="11">
-        <v>0.71179999999999999</v>
+        <v>0.70320000000000005</v>
       </c>
       <c r="T50" s="11">
-        <v>0.79279999999999995</v>
+        <v>0.68220000000000003</v>
       </c>
       <c r="U50" s="11">
-        <v>0.85019999999999996</v>
+        <v>0.69710000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="11">
-        <v>0.5</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="C51" s="11">
-        <v>0.75290000000000001</v>
+        <v>0.75190000000000001</v>
       </c>
       <c r="D51" s="11">
-        <v>0.6381</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="E51" s="11">
-        <v>0.70630000000000004</v>
+        <v>0.8528</v>
       </c>
       <c r="F51" s="11">
-        <v>0.65149999999999997</v>
+        <v>0.75939999999999996</v>
       </c>
       <c r="G51" s="11">
-        <v>0.60699999999999998</v>
+        <v>0.79630000000000001</v>
       </c>
       <c r="H51" s="11">
-        <v>0.74609999999999999</v>
+        <v>0.80220000000000002</v>
       </c>
       <c r="I51" s="11">
-        <v>0.64859999999999995</v>
+        <v>0.77690000000000003</v>
       </c>
       <c r="J51" s="11">
-        <v>0.69669999999999999</v>
+        <v>0.83540000000000003</v>
       </c>
       <c r="K51" s="11">
-        <v>0.81310000000000004</v>
+        <v>0.79459999999999997</v>
       </c>
       <c r="L51" s="11">
-        <v>0.79549999999999998</v>
+        <v>0.74060000000000004</v>
       </c>
       <c r="M51" s="11">
-        <v>0.83779999999999999</v>
+        <v>0.79190000000000005</v>
       </c>
       <c r="N51" s="11">
-        <v>0.84250000000000003</v>
+        <v>0.82410000000000005</v>
       </c>
       <c r="O51" s="11">
-        <v>0.89319999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="P51" s="11">
-        <v>0.73399999999999999</v>
+        <v>0.76970000000000005</v>
       </c>
       <c r="Q51" s="11">
-        <v>0.73019999999999996</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="R51" s="11">
-        <v>0.74660000000000004</v>
+        <v>0.80489999999999995</v>
       </c>
       <c r="S51" s="11">
-        <v>0.70320000000000005</v>
+        <v>0.7278</v>
       </c>
       <c r="T51" s="11">
-        <v>0.68220000000000003</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="U51" s="11">
-        <v>0.69710000000000005</v>
+        <v>0.78480000000000005</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="11">
-        <v>0.72729999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="C52" s="11">
-        <v>0.75190000000000001</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="D52" s="11">
-        <v>0.78500000000000003</v>
+        <v>0.73580000000000001</v>
       </c>
       <c r="E52" s="11">
-        <v>0.8528</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="F52" s="11">
-        <v>0.75939999999999996</v>
+        <v>0.74550000000000005</v>
       </c>
       <c r="G52" s="11">
-        <v>0.79630000000000001</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="H52" s="11">
-        <v>0.80220000000000002</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="I52" s="11">
-        <v>0.77690000000000003</v>
+        <v>0.53659999999999997</v>
       </c>
       <c r="J52" s="11">
-        <v>0.83540000000000003</v>
+        <v>0.8</v>
       </c>
       <c r="K52" s="11">
-        <v>0.79459999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="L52" s="11">
-        <v>0.74060000000000004</v>
+        <v>0.70730000000000004</v>
       </c>
       <c r="M52" s="11">
-        <v>0.79190000000000005</v>
+        <v>0.625</v>
       </c>
       <c r="N52" s="11">
-        <v>0.82410000000000005</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="O52" s="11">
-        <v>0.74</v>
+        <v>0.80489999999999995</v>
       </c>
       <c r="P52" s="11">
-        <v>0.76970000000000005</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="Q52" s="11">
-        <v>0.79700000000000004</v>
+        <v>0.67920000000000003</v>
       </c>
       <c r="R52" s="11">
-        <v>0.80489999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="S52" s="11">
-        <v>0.7278</v>
+        <v>0.7077</v>
       </c>
       <c r="T52" s="11">
-        <v>0.69750000000000001</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="U52" s="11">
-        <v>0.78480000000000005</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="11">
-        <v>0.6</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="C53" s="11">
-        <v>0.70589999999999997</v>
+        <v>0.44309999999999999</v>
       </c>
       <c r="D53" s="11">
-        <v>0.73580000000000001</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="E53" s="11">
-        <v>0.71430000000000005</v>
+        <v>0.48659999999999998</v>
       </c>
       <c r="F53" s="11">
-        <v>0.74550000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G53" s="11">
-        <v>0.75609999999999999</v>
+        <v>0.54749999999999999</v>
       </c>
       <c r="H53" s="11">
-        <v>0.80649999999999999</v>
+        <v>0.47660000000000002</v>
       </c>
       <c r="I53" s="11">
-        <v>0.53659999999999997</v>
+        <v>0.47739999999999999</v>
       </c>
       <c r="J53" s="11">
-        <v>0.8</v>
+        <v>0.59189999999999998</v>
       </c>
       <c r="K53" s="11">
-        <v>0.75</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="L53" s="11">
-        <v>0.70730000000000004</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="M53" s="11">
-        <v>0.625</v>
+        <v>0.61929999999999996</v>
       </c>
       <c r="N53" s="11">
-        <v>0.77139999999999997</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="O53" s="11">
-        <v>0.80489999999999995</v>
+        <v>0.63549999999999995</v>
       </c>
       <c r="P53" s="11">
-        <v>0.83330000000000004</v>
+        <v>0.50780000000000003</v>
       </c>
       <c r="Q53" s="11">
-        <v>0.67920000000000003</v>
+        <v>0.58879999999999999</v>
       </c>
       <c r="R53" s="11">
-        <v>0.75</v>
+        <v>0.65429999999999999</v>
       </c>
       <c r="S53" s="11">
-        <v>0.7077</v>
+        <v>0.63480000000000003</v>
       </c>
       <c r="T53" s="11">
-        <v>0.83330000000000004</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="U53" s="11">
-        <v>0.875</v>
+        <v>0.68420000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="11">
-        <v>0.40600000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="C54" s="11">
-        <v>0.44309999999999999</v>
+        <v>0.56940000000000002</v>
       </c>
       <c r="D54" s="11">
-        <v>0.45429999999999998</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="E54" s="11">
-        <v>0.48659999999999998</v>
+        <v>0.67879999999999996</v>
       </c>
       <c r="F54" s="11">
-        <v>0.5</v>
+        <v>0.78159999999999996</v>
       </c>
       <c r="G54" s="11">
-        <v>0.54749999999999999</v>
+        <v>0.77549999999999997</v>
       </c>
       <c r="H54" s="11">
-        <v>0.47660000000000002</v>
+        <v>0.82650000000000001</v>
       </c>
       <c r="I54" s="11">
-        <v>0.47739999999999999</v>
+        <v>0.77210000000000001</v>
       </c>
       <c r="J54" s="11">
-        <v>0.59189999999999998</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="K54" s="11">
-        <v>0.63700000000000001</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="L54" s="11">
-        <v>0.67800000000000005</v>
+        <v>0.80379999999999996</v>
       </c>
       <c r="M54" s="11">
-        <v>0.61929999999999996</v>
+        <v>0.78969999999999996</v>
       </c>
       <c r="N54" s="11">
-        <v>0.66459999999999997</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="O54" s="11">
-        <v>0.63549999999999995</v>
+        <v>0.82</v>
       </c>
       <c r="P54" s="11">
-        <v>0.50780000000000003</v>
+        <v>0.83040000000000003</v>
       </c>
       <c r="Q54" s="11">
-        <v>0.58879999999999999</v>
+        <v>0.81010000000000004</v>
       </c>
       <c r="R54" s="11">
-        <v>0.65429999999999999</v>
-      </c>
-      <c r="S54" s="11">
-        <v>0.63480000000000003</v>
-      </c>
-      <c r="T54" s="11">
-        <v>0.64680000000000004</v>
-      </c>
-      <c r="U54" s="11">
-        <v>0.68420000000000003</v>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="S54" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T54" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="11">
-        <v>0.5</v>
+        <v>0.46279999999999999</v>
       </c>
       <c r="C55" s="11">
-        <v>0.56940000000000002</v>
+        <v>0.33510000000000001</v>
       </c>
       <c r="D55" s="11">
-        <v>0.80100000000000005</v>
+        <v>0.50270000000000004</v>
       </c>
       <c r="E55" s="11">
-        <v>0.67879999999999996</v>
+        <v>0.60760000000000003</v>
       </c>
       <c r="F55" s="11">
-        <v>0.78159999999999996</v>
+        <v>0.66769999999999996</v>
       </c>
       <c r="G55" s="11">
-        <v>0.77549999999999997</v>
+        <v>0.76219999999999999</v>
       </c>
       <c r="H55" s="11">
-        <v>0.82650000000000001</v>
+        <v>0.7056</v>
       </c>
       <c r="I55" s="11">
-        <v>0.77210000000000001</v>
+        <v>0.71840000000000004</v>
       </c>
       <c r="J55" s="11">
-        <v>0.85829999999999995</v>
+        <v>0.69179999999999997</v>
       </c>
       <c r="K55" s="11">
-        <v>0.78220000000000001</v>
+        <v>0.68630000000000002</v>
       </c>
       <c r="L55" s="11">
-        <v>0.80379999999999996</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="M55" s="11">
-        <v>0.78969999999999996</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="N55" s="11">
-        <v>0.78220000000000001</v>
+        <v>0.73070000000000002</v>
       </c>
       <c r="O55" s="11">
-        <v>0.82</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="P55" s="11">
-        <v>0.83040000000000003</v>
+        <v>0.75690000000000002</v>
       </c>
       <c r="Q55" s="11">
-        <v>0.81010000000000004</v>
+        <v>0.71819999999999995</v>
       </c>
       <c r="R55" s="11">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="S55" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="T55" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="U55" s="10" t="s">
-        <v>55</v>
+        <v>0.75</v>
+      </c>
+      <c r="S55" s="11">
+        <v>0.7006</v>
+      </c>
+      <c r="T55" s="11">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="U55" s="11">
+        <v>0.72509999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="11">
-        <v>0.46279999999999999</v>
+        <v>0.81330000000000002</v>
       </c>
       <c r="C56" s="11">
-        <v>0.33510000000000001</v>
+        <v>0.76829999999999998</v>
       </c>
       <c r="D56" s="11">
-        <v>0.50270000000000004</v>
+        <v>0.79579999999999995</v>
       </c>
       <c r="E56" s="11">
-        <v>0.60760000000000003</v>
+        <v>0.82740000000000002</v>
       </c>
       <c r="F56" s="11">
-        <v>0.66769999999999996</v>
+        <v>0.83740000000000003</v>
       </c>
       <c r="G56" s="11">
-        <v>0.76219999999999999</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="H56" s="11">
-        <v>0.7056</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="I56" s="11">
-        <v>0.71840000000000004</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="J56" s="11">
-        <v>0.69179999999999997</v>
+        <v>0.76570000000000005</v>
       </c>
       <c r="K56" s="11">
-        <v>0.68630000000000002</v>
+        <v>0.77929999999999999</v>
       </c>
       <c r="L56" s="11">
-        <v>0.76490000000000002</v>
+        <v>0.77880000000000005</v>
       </c>
       <c r="M56" s="11">
-        <v>0.73099999999999998</v>
+        <v>0.81459999999999999</v>
       </c>
       <c r="N56" s="11">
-        <v>0.73070000000000002</v>
+        <v>0.76859999999999995</v>
       </c>
       <c r="O56" s="11">
-        <v>0.71330000000000005</v>
+        <v>0.7419</v>
       </c>
       <c r="P56" s="11">
-        <v>0.75690000000000002</v>
+        <v>0.87029999999999996</v>
       </c>
       <c r="Q56" s="11">
-        <v>0.71819999999999995</v>
+        <v>0.75649999999999995</v>
       </c>
       <c r="R56" s="11">
-        <v>0.75</v>
+        <v>0.75680000000000003</v>
       </c>
       <c r="S56" s="11">
-        <v>0.7006</v>
+        <v>0.83220000000000005</v>
       </c>
       <c r="T56" s="11">
-        <v>0.67910000000000004</v>
+        <v>0.872</v>
       </c>
       <c r="U56" s="11">
-        <v>0.72509999999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="11">
-        <v>0.81330000000000002</v>
-      </c>
-      <c r="C57" s="11">
-        <v>0.76829999999999998</v>
-      </c>
-      <c r="D57" s="11">
-        <v>0.79579999999999995</v>
-      </c>
-      <c r="E57" s="11">
-        <v>0.82740000000000002</v>
-      </c>
-      <c r="F57" s="11">
-        <v>0.83740000000000003</v>
-      </c>
-      <c r="G57" s="11">
-        <v>0.75490000000000002</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="I57" s="11">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="J57" s="11">
-        <v>0.76570000000000005</v>
-      </c>
-      <c r="K57" s="11">
-        <v>0.77929999999999999</v>
-      </c>
-      <c r="L57" s="11">
-        <v>0.77880000000000005</v>
-      </c>
-      <c r="M57" s="11">
-        <v>0.81459999999999999</v>
-      </c>
-      <c r="N57" s="11">
-        <v>0.76859999999999995</v>
-      </c>
-      <c r="O57" s="11">
-        <v>0.7419</v>
-      </c>
-      <c r="P57" s="11">
-        <v>0.87029999999999996</v>
-      </c>
-      <c r="Q57" s="11">
-        <v>0.75649999999999995</v>
-      </c>
-      <c r="R57" s="11">
-        <v>0.75680000000000003</v>
-      </c>
-      <c r="S57" s="11">
-        <v>0.83220000000000005</v>
-      </c>
-      <c r="T57" s="11">
-        <v>0.872</v>
-      </c>
-      <c r="U57" s="11">
         <v>0.86709999999999998</v>
       </c>
     </row>
@@ -4480,10 +4415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7420,781 +7355,716 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.29270000000000002</v>
       </c>
       <c r="C46" s="8">
-        <v>0.2</v>
+        <v>0.27339999999999998</v>
       </c>
       <c r="D46" s="8">
-        <v>0.30430000000000001</v>
+        <v>0.32590000000000002</v>
       </c>
       <c r="E46" s="8">
-        <v>0.31819999999999998</v>
+        <v>0.28389999999999999</v>
       </c>
       <c r="F46" s="8">
-        <v>0</v>
+        <v>0.22819999999999999</v>
       </c>
       <c r="G46" s="8">
-        <v>0.1</v>
+        <v>0.2994</v>
       </c>
       <c r="H46" s="8">
-        <v>5.5599999999999997E-2</v>
+        <v>0.23530000000000001</v>
       </c>
       <c r="I46" s="8">
-        <v>0.1</v>
+        <v>0.2205</v>
       </c>
       <c r="J46" s="8">
-        <v>0</v>
+        <v>0.15429999999999999</v>
       </c>
       <c r="K46" s="8">
-        <v>0</v>
+        <v>0.17269999999999999</v>
       </c>
       <c r="L46" s="8">
-        <v>0.25</v>
+        <v>0.12659999999999999</v>
       </c>
       <c r="M46" s="8">
-        <v>0</v>
+        <v>0.20979999999999999</v>
       </c>
       <c r="N46" s="8">
-        <v>0</v>
+        <v>0.1603</v>
       </c>
       <c r="O46" s="8">
-        <v>0</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="P46" s="8">
-        <v>0</v>
+        <v>0.1686</v>
       </c>
       <c r="Q46" s="8">
-        <v>0.25</v>
+        <v>0.17610000000000001</v>
       </c>
       <c r="R46" s="8">
-        <v>0.4</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="S46" s="8">
-        <v>0</v>
-      </c>
-      <c r="T46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U46" s="6" t="s">
-        <v>55</v>
+        <v>0.1206</v>
+      </c>
+      <c r="T46" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="U46" s="8">
+        <v>0.191</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="8">
-        <v>0.29270000000000002</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="C47" s="8">
-        <v>0.27339999999999998</v>
+        <v>0.29680000000000001</v>
       </c>
       <c r="D47" s="8">
-        <v>0.32590000000000002</v>
+        <v>0.23419999999999999</v>
       </c>
       <c r="E47" s="8">
-        <v>0.28389999999999999</v>
+        <v>0.23380000000000001</v>
       </c>
       <c r="F47" s="8">
-        <v>0.22819999999999999</v>
+        <v>0.19689999999999999</v>
       </c>
       <c r="G47" s="8">
-        <v>0.2994</v>
+        <v>0.1951</v>
       </c>
       <c r="H47" s="8">
-        <v>0.23530000000000001</v>
+        <v>0.2392</v>
       </c>
       <c r="I47" s="8">
-        <v>0.2205</v>
+        <v>0.2346</v>
       </c>
       <c r="J47" s="8">
-        <v>0.15429999999999999</v>
+        <v>0.2467</v>
       </c>
       <c r="K47" s="8">
-        <v>0.17269999999999999</v>
+        <v>0.2268</v>
       </c>
       <c r="L47" s="8">
-        <v>0.12659999999999999</v>
+        <v>0.1991</v>
       </c>
       <c r="M47" s="8">
-        <v>0.20979999999999999</v>
+        <v>0.1993</v>
       </c>
       <c r="N47" s="8">
-        <v>0.1603</v>
+        <v>0.1898</v>
       </c>
       <c r="O47" s="8">
-        <v>0.15379999999999999</v>
+        <v>0.20860000000000001</v>
       </c>
       <c r="P47" s="8">
-        <v>0.1686</v>
+        <v>0.1731</v>
       </c>
       <c r="Q47" s="8">
-        <v>0.17610000000000001</v>
+        <v>0.20619999999999999</v>
       </c>
       <c r="R47" s="8">
-        <v>0.22220000000000001</v>
+        <v>0.13769999999999999</v>
       </c>
       <c r="S47" s="8">
-        <v>0.1206</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="T47" s="8">
-        <v>0.125</v>
+        <v>0.1777</v>
       </c>
       <c r="U47" s="8">
-        <v>0.191</v>
+        <v>0.15509999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8">
-        <v>0.25700000000000001</v>
+        <v>0.34760000000000002</v>
       </c>
       <c r="C48" s="8">
-        <v>0.29680000000000001</v>
+        <v>0.20150000000000001</v>
       </c>
       <c r="D48" s="8">
-        <v>0.23419999999999999</v>
+        <v>0.14979999999999999</v>
       </c>
       <c r="E48" s="8">
-        <v>0.23380000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="F48" s="8">
-        <v>0.19689999999999999</v>
+        <v>0.318</v>
       </c>
       <c r="G48" s="8">
-        <v>0.1951</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="H48" s="8">
-        <v>0.2392</v>
+        <v>0.24970000000000001</v>
       </c>
       <c r="I48" s="8">
-        <v>0.2346</v>
+        <v>0.23469999999999999</v>
       </c>
       <c r="J48" s="8">
-        <v>0.2467</v>
+        <v>0.21779999999999999</v>
       </c>
       <c r="K48" s="8">
-        <v>0.2268</v>
+        <v>0.12559999999999999</v>
       </c>
       <c r="L48" s="8">
-        <v>0.1991</v>
+        <v>0.1537</v>
       </c>
       <c r="M48" s="8">
-        <v>0.1993</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="N48" s="8">
-        <v>0.1898</v>
+        <v>0.13819999999999999</v>
       </c>
       <c r="O48" s="8">
-        <v>0.20860000000000001</v>
+        <v>0.1229</v>
       </c>
       <c r="P48" s="8">
-        <v>0.1731</v>
+        <v>0.16539999999999999</v>
       </c>
       <c r="Q48" s="8">
-        <v>0.20619999999999999</v>
+        <v>0.1226</v>
       </c>
       <c r="R48" s="8">
-        <v>0.13769999999999999</v>
+        <v>0.1205</v>
       </c>
       <c r="S48" s="8">
-        <v>0.15079999999999999</v>
+        <v>0.13120000000000001</v>
       </c>
       <c r="T48" s="8">
-        <v>0.1777</v>
-      </c>
-      <c r="U48" s="8">
-        <v>0.15509999999999999</v>
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="U48" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="8">
-        <v>0.34760000000000002</v>
+        <v>0.65259999999999996</v>
       </c>
       <c r="C49" s="8">
-        <v>0.20150000000000001</v>
+        <v>0.6129</v>
       </c>
       <c r="D49" s="8">
-        <v>0.14979999999999999</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="E49" s="8">
-        <v>0.23200000000000001</v>
+        <v>0.48049999999999998</v>
       </c>
       <c r="F49" s="8">
-        <v>0.318</v>
+        <v>0.44140000000000001</v>
       </c>
       <c r="G49" s="8">
-        <v>0.27400000000000002</v>
+        <v>0.47670000000000001</v>
       </c>
       <c r="H49" s="8">
-        <v>0.24970000000000001</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="I49" s="8">
-        <v>0.23469999999999999</v>
+        <v>0.59009999999999996</v>
       </c>
       <c r="J49" s="8">
-        <v>0.21779999999999999</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="K49" s="8">
+        <v>0.2457</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="M49" s="8">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0.377</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0.3392</v>
+      </c>
+      <c r="P49" s="8">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0.27879999999999999</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="S49" s="8">
+        <v>0.2389</v>
+      </c>
+      <c r="T49" s="8">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="U49" s="8">
         <v>0.12559999999999999</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0.1537</v>
-      </c>
-      <c r="M49" s="8">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="N49" s="8">
-        <v>0.13819999999999999</v>
-      </c>
-      <c r="O49" s="8">
-        <v>0.1229</v>
-      </c>
-      <c r="P49" s="8">
-        <v>0.16539999999999999</v>
-      </c>
-      <c r="Q49" s="8">
-        <v>0.1226</v>
-      </c>
-      <c r="R49" s="8">
-        <v>0.1205</v>
-      </c>
-      <c r="S49" s="8">
-        <v>0.13120000000000001</v>
-      </c>
-      <c r="T49" s="8">
-        <v>0.11650000000000001</v>
-      </c>
-      <c r="U49" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="8">
-        <v>0.65259999999999996</v>
+        <v>0.46810000000000002</v>
       </c>
       <c r="C50" s="8">
-        <v>0.6129</v>
+        <v>0.23180000000000001</v>
       </c>
       <c r="D50" s="8">
-        <v>0.51370000000000005</v>
+        <v>0.3503</v>
       </c>
       <c r="E50" s="8">
-        <v>0.48049999999999998</v>
+        <v>0.29370000000000002</v>
       </c>
       <c r="F50" s="8">
-        <v>0.44140000000000001</v>
+        <v>0.34089999999999998</v>
       </c>
       <c r="G50" s="8">
-        <v>0.47670000000000001</v>
+        <v>0.38269999999999998</v>
       </c>
       <c r="H50" s="8">
-        <v>0.56100000000000005</v>
+        <v>0.25390000000000001</v>
       </c>
       <c r="I50" s="8">
-        <v>0.59009999999999996</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="J50" s="8">
-        <v>0.59260000000000002</v>
+        <v>0.28789999999999999</v>
       </c>
       <c r="K50" s="8">
-        <v>0.2457</v>
+        <v>0.16819999999999999</v>
       </c>
       <c r="L50" s="8">
-        <v>0.39750000000000002</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="M50" s="8">
-        <v>0.37780000000000002</v>
+        <v>0.15340000000000001</v>
       </c>
       <c r="N50" s="8">
-        <v>0.377</v>
+        <v>0.151</v>
       </c>
       <c r="O50" s="8">
-        <v>0.3392</v>
+        <v>0.1004</v>
       </c>
       <c r="P50" s="8">
-        <v>0.30020000000000002</v>
+        <v>0.25669999999999998</v>
       </c>
       <c r="Q50" s="8">
-        <v>0.27879999999999999</v>
+        <v>0.25090000000000001</v>
       </c>
       <c r="R50" s="8">
-        <v>0.25019999999999998</v>
+        <v>0.24560000000000001</v>
       </c>
       <c r="S50" s="8">
-        <v>0.2389</v>
+        <v>0.2903</v>
       </c>
       <c r="T50" s="8">
-        <v>0.16200000000000001</v>
+        <v>0.30669999999999997</v>
       </c>
       <c r="U50" s="8">
-        <v>0.12559999999999999</v>
+        <v>0.29570000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="8">
-        <v>0.46810000000000002</v>
+        <v>0.2273</v>
       </c>
       <c r="C51" s="8">
-        <v>0.23180000000000001</v>
+        <v>0.2326</v>
       </c>
       <c r="D51" s="8">
-        <v>0.3503</v>
+        <v>0.1636</v>
       </c>
       <c r="E51" s="8">
-        <v>0.29370000000000002</v>
+        <v>0.12690000000000001</v>
       </c>
       <c r="F51" s="8">
-        <v>0.34089999999999998</v>
+        <v>0.22989999999999999</v>
       </c>
       <c r="G51" s="8">
-        <v>0.38269999999999998</v>
+        <v>0.17130000000000001</v>
       </c>
       <c r="H51" s="8">
-        <v>0.25390000000000001</v>
+        <v>0.1754</v>
       </c>
       <c r="I51" s="8">
-        <v>0.33239999999999997</v>
+        <v>0.1983</v>
       </c>
       <c r="J51" s="8">
-        <v>0.28789999999999999</v>
+        <v>0.1605</v>
       </c>
       <c r="K51" s="8">
-        <v>0.16819999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="L51" s="8">
-        <v>0.18759999999999999</v>
+        <v>0.2301</v>
       </c>
       <c r="M51" s="8">
-        <v>0.15340000000000001</v>
+        <v>0.20230000000000001</v>
       </c>
       <c r="N51" s="8">
-        <v>0.151</v>
+        <v>0.15740000000000001</v>
       </c>
       <c r="O51" s="8">
-        <v>0.1004</v>
+        <v>0.24</v>
       </c>
       <c r="P51" s="8">
-        <v>0.25669999999999998</v>
+        <v>0.18540000000000001</v>
       </c>
       <c r="Q51" s="8">
-        <v>0.25090000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="R51" s="8">
-        <v>0.24560000000000001</v>
+        <v>0.1512</v>
       </c>
       <c r="S51" s="8">
-        <v>0.2903</v>
+        <v>0.23330000000000001</v>
       </c>
       <c r="T51" s="8">
-        <v>0.30669999999999997</v>
+        <v>0.27160000000000001</v>
       </c>
       <c r="U51" s="8">
-        <v>0.29570000000000002</v>
+        <v>0.2152</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="8">
-        <v>0.2273</v>
+        <v>0.3</v>
       </c>
       <c r="C52" s="8">
-        <v>0.2326</v>
+        <v>0.23530000000000001</v>
       </c>
       <c r="D52" s="8">
-        <v>0.1636</v>
+        <v>0.24529999999999999</v>
       </c>
       <c r="E52" s="8">
-        <v>0.12690000000000001</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F52" s="8">
-        <v>0.22989999999999999</v>
+        <v>0.2364</v>
       </c>
       <c r="G52" s="8">
-        <v>0.17130000000000001</v>
+        <v>0.24390000000000001</v>
       </c>
       <c r="H52" s="8">
-        <v>0.1754</v>
+        <v>0.19350000000000001</v>
       </c>
       <c r="I52" s="8">
-        <v>0.1983</v>
+        <v>0.439</v>
       </c>
       <c r="J52" s="8">
-        <v>0.1605</v>
+        <v>0.18</v>
       </c>
       <c r="K52" s="8">
-        <v>0.186</v>
+        <v>0.25</v>
       </c>
       <c r="L52" s="8">
-        <v>0.2301</v>
+        <v>0.26829999999999998</v>
       </c>
       <c r="M52" s="8">
-        <v>0.20230000000000001</v>
+        <v>0.28129999999999999</v>
       </c>
       <c r="N52" s="8">
-        <v>0.15740000000000001</v>
+        <v>0.2286</v>
       </c>
       <c r="O52" s="8">
-        <v>0.24</v>
+        <v>0.17069999999999999</v>
       </c>
       <c r="P52" s="8">
-        <v>0.18540000000000001</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="Q52" s="8">
-        <v>0.20300000000000001</v>
+        <v>0.32079999999999997</v>
       </c>
       <c r="R52" s="8">
-        <v>0.1512</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="S52" s="8">
-        <v>0.23330000000000001</v>
+        <v>0.2923</v>
       </c>
       <c r="T52" s="8">
-        <v>0.27160000000000001</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="U52" s="8">
-        <v>0.2152</v>
+        <v>9.3799999999999994E-2</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="8">
-        <v>0.3</v>
+        <v>0.57240000000000002</v>
       </c>
       <c r="C53" s="8">
-        <v>0.23530000000000001</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D53" s="8">
-        <v>0.24529999999999999</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="E53" s="8">
-        <v>0.28570000000000001</v>
+        <v>0.47639999999999999</v>
       </c>
       <c r="F53" s="8">
-        <v>0.2364</v>
+        <v>0.45419999999999999</v>
       </c>
       <c r="G53" s="8">
-        <v>0.24390000000000001</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="H53" s="8">
-        <v>0.19350000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="I53" s="8">
-        <v>0.439</v>
+        <v>0.4229</v>
       </c>
       <c r="J53" s="8">
-        <v>0.18</v>
+        <v>0.36909999999999998</v>
       </c>
       <c r="K53" s="8">
-        <v>0.25</v>
+        <v>0.32550000000000001</v>
       </c>
       <c r="L53" s="8">
-        <v>0.26829999999999998</v>
+        <v>0.26590000000000003</v>
       </c>
       <c r="M53" s="8">
-        <v>0.28129999999999999</v>
+        <v>0.31459999999999999</v>
       </c>
       <c r="N53" s="8">
-        <v>0.2286</v>
+        <v>0.30209999999999998</v>
       </c>
       <c r="O53" s="8">
-        <v>0.17069999999999999</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="P53" s="8">
-        <v>0.16669999999999999</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="Q53" s="8">
-        <v>0.32079999999999997</v>
+        <v>0.4002</v>
       </c>
       <c r="R53" s="8">
-        <v>0.23080000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="S53" s="8">
-        <v>0.2923</v>
+        <v>0.35930000000000001</v>
       </c>
       <c r="T53" s="8">
-        <v>0.16669999999999999</v>
+        <v>0.3463</v>
       </c>
       <c r="U53" s="8">
-        <v>9.3799999999999994E-2</v>
+        <v>0.3039</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="8">
-        <v>0.57240000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="C54" s="8">
-        <v>0.53749999999999998</v>
+        <v>0.43059999999999998</v>
       </c>
       <c r="D54" s="8">
-        <v>0.51600000000000001</v>
+        <v>0.17480000000000001</v>
       </c>
       <c r="E54" s="8">
-        <v>0.47639999999999999</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="F54" s="8">
-        <v>0.45419999999999999</v>
+        <v>0.1782</v>
       </c>
       <c r="G54" s="8">
-        <v>0.39400000000000002</v>
+        <v>0.21940000000000001</v>
       </c>
       <c r="H54" s="8">
-        <v>0.4375</v>
+        <v>0.1633</v>
       </c>
       <c r="I54" s="8">
-        <v>0.4229</v>
+        <v>0.21859999999999999</v>
       </c>
       <c r="J54" s="8">
-        <v>0.36909999999999998</v>
+        <v>0.13389999999999999</v>
       </c>
       <c r="K54" s="8">
-        <v>0.32550000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="L54" s="8">
-        <v>0.26590000000000003</v>
+        <v>0.18459999999999999</v>
       </c>
       <c r="M54" s="8">
-        <v>0.31459999999999999</v>
+        <v>0.1963</v>
       </c>
       <c r="N54" s="8">
-        <v>0.30209999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="O54" s="8">
-        <v>0.35360000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="P54" s="8">
-        <v>0.48399999999999999</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="Q54" s="8">
-        <v>0.4002</v>
+        <v>0.18990000000000001</v>
       </c>
       <c r="R54" s="8">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="S54" s="8">
-        <v>0.35930000000000001</v>
-      </c>
-      <c r="T54" s="8">
-        <v>0.3463</v>
-      </c>
-      <c r="U54" s="8">
-        <v>0.3039</v>
+        <v>6.88E-2</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8">
-        <v>0.5</v>
+        <v>0.38429999999999997</v>
       </c>
       <c r="C55" s="8">
-        <v>0.43059999999999998</v>
+        <v>0.49819999999999998</v>
       </c>
       <c r="D55" s="8">
-        <v>0.17480000000000001</v>
+        <v>0.31580000000000003</v>
       </c>
       <c r="E55" s="8">
-        <v>0.28470000000000001</v>
+        <v>0.2135</v>
       </c>
       <c r="F55" s="8">
-        <v>0.1782</v>
+        <v>0.19489999999999999</v>
       </c>
       <c r="G55" s="8">
-        <v>0.21940000000000001</v>
+        <v>0.1424</v>
       </c>
       <c r="H55" s="8">
-        <v>0.1633</v>
+        <v>0.18709999999999999</v>
       </c>
       <c r="I55" s="8">
-        <v>0.21859999999999999</v>
+        <v>0.1759</v>
       </c>
       <c r="J55" s="8">
-        <v>0.13389999999999999</v>
+        <v>0.15190000000000001</v>
       </c>
       <c r="K55" s="8">
-        <v>0.20300000000000001</v>
+        <v>0.18770000000000001</v>
       </c>
       <c r="L55" s="8">
-        <v>0.18459999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="M55" s="8">
-        <v>0.1963</v>
+        <v>0.15629999999999999</v>
       </c>
       <c r="N55" s="8">
-        <v>0.2</v>
+        <v>0.1293</v>
       </c>
       <c r="O55" s="8">
-        <v>0.16</v>
+        <v>0.16020000000000001</v>
       </c>
       <c r="P55" s="8">
-        <v>0.15790000000000001</v>
+        <v>0.1028</v>
       </c>
       <c r="Q55" s="8">
-        <v>0.18990000000000001</v>
+        <v>0.12920000000000001</v>
       </c>
       <c r="R55" s="8">
-        <v>6.88E-2</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U55" s="6" t="s">
-        <v>55</v>
+        <v>0.1105</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="T55" s="8">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0.16950000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="8">
-        <v>0.38429999999999997</v>
+        <v>0.1867</v>
       </c>
       <c r="C56" s="8">
-        <v>0.49819999999999998</v>
+        <v>0.20730000000000001</v>
       </c>
       <c r="D56" s="8">
-        <v>0.31580000000000003</v>
+        <v>0.1832</v>
       </c>
       <c r="E56" s="8">
-        <v>0.2135</v>
+        <v>0.15759999999999999</v>
       </c>
       <c r="F56" s="8">
-        <v>0.19489999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="G56" s="8">
-        <v>0.1424</v>
+        <v>0.21809999999999999</v>
       </c>
       <c r="H56" s="8">
-        <v>0.18709999999999999</v>
+        <v>0.21160000000000001</v>
       </c>
       <c r="I56" s="8">
-        <v>0.1759</v>
+        <v>0.17369999999999999</v>
       </c>
       <c r="J56" s="8">
-        <v>0.15190000000000001</v>
+        <v>0.20280000000000001</v>
       </c>
       <c r="K56" s="8">
-        <v>0.18770000000000001</v>
+        <v>0.20669999999999999</v>
       </c>
       <c r="L56" s="8">
-        <v>0.151</v>
+        <v>0.20669999999999999</v>
       </c>
       <c r="M56" s="8">
-        <v>0.15629999999999999</v>
+        <v>0.16009999999999999</v>
       </c>
       <c r="N56" s="8">
-        <v>0.1293</v>
+        <v>0.20569999999999999</v>
       </c>
       <c r="O56" s="8">
-        <v>0.16020000000000001</v>
+        <v>0.25090000000000001</v>
       </c>
       <c r="P56" s="8">
-        <v>0.1028</v>
+        <v>0.1239</v>
       </c>
       <c r="Q56" s="8">
-        <v>0.12920000000000001</v>
+        <v>0.22509999999999999</v>
       </c>
       <c r="R56" s="8">
-        <v>0.1105</v>
+        <v>7.5700000000000003E-2</v>
       </c>
       <c r="S56" s="8">
-        <v>0.13</v>
+        <v>0.11260000000000001</v>
       </c>
       <c r="T56" s="8">
-        <v>0.16189999999999999</v>
+        <v>9.0700000000000003E-2</v>
       </c>
       <c r="U56" s="8">
-        <v>0.16950000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="8">
-        <v>0.1867</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0.20730000000000001</v>
-      </c>
-      <c r="D57" s="8">
-        <v>0.1832</v>
-      </c>
-      <c r="E57" s="8">
-        <v>0.15759999999999999</v>
-      </c>
-      <c r="F57" s="8">
-        <v>0.1429</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0.21809999999999999</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0.21160000000000001</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0.17369999999999999</v>
-      </c>
-      <c r="J57" s="8">
-        <v>0.20280000000000001</v>
-      </c>
-      <c r="K57" s="8">
-        <v>0.20669999999999999</v>
-      </c>
-      <c r="L57" s="8">
-        <v>0.20669999999999999</v>
-      </c>
-      <c r="M57" s="8">
-        <v>0.16009999999999999</v>
-      </c>
-      <c r="N57" s="8">
-        <v>0.20569999999999999</v>
-      </c>
-      <c r="O57" s="8">
-        <v>0.25090000000000001</v>
-      </c>
-      <c r="P57" s="8">
-        <v>0.1239</v>
-      </c>
-      <c r="Q57" s="8">
-        <v>0.22509999999999999</v>
-      </c>
-      <c r="R57" s="8">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="S57" s="8">
-        <v>0.11260000000000001</v>
-      </c>
-      <c r="T57" s="8">
-        <v>9.0700000000000003E-2</v>
-      </c>
-      <c r="U57" s="8">
         <v>0.1013</v>
       </c>
     </row>
@@ -8211,10 +8081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11151,781 +11021,716 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0</v>
       </c>
       <c r="C46" s="8">
-        <v>0.1</v>
+        <v>1.44E-2</v>
       </c>
       <c r="D46" s="8">
-        <v>4.3499999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E46" s="8">
-        <v>0</v>
+        <v>1.29E-2</v>
       </c>
       <c r="F46" s="8">
-        <v>0</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="G46" s="8">
-        <v>0</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="H46" s="8">
-        <v>5.5599999999999997E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="I46" s="8">
-        <v>0.1</v>
+        <v>3.15E-2</v>
       </c>
       <c r="J46" s="8">
         <v>0</v>
       </c>
       <c r="K46" s="8">
-        <v>0</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="L46" s="8">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="M46" s="8">
-        <v>0.5</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="N46" s="8">
-        <v>0</v>
+        <v>7.6E-3</v>
       </c>
       <c r="O46" s="8">
-        <v>0</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="P46" s="8">
-        <v>0</v>
+        <v>4.07E-2</v>
       </c>
       <c r="Q46" s="8">
-        <v>0.125</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="R46" s="8">
-        <v>0</v>
+        <v>3.09E-2</v>
       </c>
       <c r="S46" s="8">
-        <v>0</v>
-      </c>
-      <c r="T46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U46" s="6" t="s">
-        <v>55</v>
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="T46" s="8">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="U46" s="8">
+        <v>1.12E-2</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="8">
-        <v>0</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="C47" s="8">
-        <v>1.44E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="D47" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E47" s="8">
-        <v>1.29E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F47" s="8">
-        <v>6.7000000000000002E-3</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="G47" s="8">
-        <v>1.6899999999999998E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="H47" s="8">
-        <v>9.7999999999999997E-3</v>
+        <v>2.86E-2</v>
       </c>
       <c r="I47" s="8">
-        <v>3.15E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="J47" s="8">
-        <v>0</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="K47" s="8">
-        <v>2.7300000000000001E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="L47" s="8">
-        <v>1.9E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="M47" s="8">
-        <v>2.1000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="N47" s="8">
-        <v>7.6E-3</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="O47" s="8">
-        <v>4.4900000000000002E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="P47" s="8">
-        <v>4.07E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="Q47" s="8">
-        <v>2.2700000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R47" s="8">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="S47" s="8">
         <v>3.09E-2</v>
       </c>
-      <c r="S47" s="8">
-        <v>1.4200000000000001E-2</v>
-      </c>
       <c r="T47" s="8">
-        <v>9.5999999999999992E-3</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="U47" s="8">
-        <v>1.12E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8">
-        <v>1.6799999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C48" s="8">
-        <v>1.14E-2</v>
+        <v>4.3E-3</v>
       </c>
       <c r="D48" s="8">
-        <v>2.8999999999999998E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="E48" s="8">
-        <v>1.1999999999999999E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="F48" s="8">
-        <v>2.3900000000000001E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="G48" s="8">
-        <v>2.5499999999999998E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="H48" s="8">
-        <v>2.86E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="I48" s="8">
-        <v>5.9400000000000001E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="J48" s="8">
-        <v>2.7199999999999998E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="K48" s="8">
-        <v>3.4599999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="L48" s="8">
-        <v>3.4500000000000003E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="M48" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="N48" s="8">
-        <v>2.4400000000000002E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="O48" s="8">
-        <v>2.4299999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="P48" s="8">
-        <v>1.3899999999999999E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Q48" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="R48" s="8">
-        <v>3.6299999999999999E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="S48" s="8">
-        <v>3.09E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="T48" s="8">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="U48" s="8">
-        <v>1.7100000000000001E-2</v>
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="U48" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="8">
-        <v>1.9E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="C49" s="8">
-        <v>4.3E-3</v>
+        <v>7.7600000000000002E-2</v>
       </c>
       <c r="D49" s="8">
-        <v>4.7000000000000002E-3</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E49" s="8">
-        <v>1.0800000000000001E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="F49" s="8">
-        <v>2.06E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="G49" s="8">
-        <v>1.23E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="H49" s="8">
-        <v>1.6899999999999998E-2</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="I49" s="8">
-        <v>1.3299999999999999E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="J49" s="8">
-        <v>1.5900000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="K49" s="8">
-        <v>1.4E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="L49" s="8">
-        <v>1.5299999999999999E-2</v>
+        <v>9.3700000000000006E-2</v>
       </c>
       <c r="M49" s="8">
-        <v>1.1599999999999999E-2</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="N49" s="8">
-        <v>1.6899999999999998E-2</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="O49" s="8">
-        <v>1.0999999999999999E-2</v>
+        <v>8.8900000000000007E-2</v>
       </c>
       <c r="P49" s="8">
-        <v>1.5800000000000002E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="Q49" s="8">
-        <v>9.4999999999999998E-3</v>
+        <v>7.46E-2</v>
       </c>
       <c r="R49" s="8">
-        <v>6.7000000000000002E-3</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="S49" s="8">
-        <v>4.7999999999999996E-3</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="T49" s="8">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="U49" s="6" t="s">
-        <v>55</v>
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="U49" s="8">
+        <v>2.41E-2</v>
       </c>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="8">
-        <v>7.4899999999999994E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="C50" s="8">
-        <v>7.7600000000000002E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="D50" s="8">
-        <v>7.2999999999999995E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="E50" s="8">
-        <v>8.6599999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="F50" s="8">
-        <v>8.4000000000000005E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="G50" s="8">
-        <v>8.48E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="H50" s="8">
-        <v>7.8299999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="I50" s="8">
-        <v>8.2199999999999995E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="J50" s="8">
-        <v>9.1999999999999998E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="K50" s="8">
-        <v>4.3799999999999999E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="L50" s="8">
-        <v>9.3700000000000006E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="M50" s="8">
-        <v>7.6200000000000004E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="N50" s="8">
-        <v>7.2300000000000003E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="O50" s="8">
-        <v>8.8900000000000007E-2</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="P50" s="8">
-        <v>8.6699999999999999E-2</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="Q50" s="8">
-        <v>7.46E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="R50" s="8">
-        <v>5.3999999999999999E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="S50" s="8">
-        <v>4.9299999999999997E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="T50" s="8">
-        <v>4.5199999999999997E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="U50" s="8">
-        <v>2.41E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="8">
-        <v>3.1899999999999998E-2</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="C51" s="8">
-        <v>1.5299999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="D51" s="8">
-        <v>1.1599999999999999E-2</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="E51" s="8">
-        <v>0</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="F51" s="8">
-        <v>7.6E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="G51" s="8">
-        <v>1.03E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="H51" s="8">
-        <v>0</v>
+        <v>2.24E-2</v>
       </c>
       <c r="I51" s="8">
-        <v>1.89E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="J51" s="8">
-        <v>1.54E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="K51" s="8">
-        <v>1.8700000000000001E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="L51" s="8">
-        <v>1.6899999999999998E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="M51" s="8">
-        <v>8.8000000000000005E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="N51" s="8">
-        <v>6.6E-3</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="O51" s="8">
-        <v>6.4000000000000003E-3</v>
+        <v>0.02</v>
       </c>
       <c r="P51" s="8">
-        <v>9.4000000000000004E-3</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="Q51" s="8">
-        <v>1.89E-2</v>
+        <v>0</v>
       </c>
       <c r="R51" s="8">
-        <v>7.7000000000000002E-3</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="S51" s="8">
-        <v>6.4999999999999997E-3</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="T51" s="8">
-        <v>1.11E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="U51" s="8">
-        <v>7.1999999999999998E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="8">
-        <v>4.5499999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C52" s="8">
-        <v>1.55E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="D52" s="8">
-        <v>5.1400000000000001E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="E52" s="8">
-        <v>2.0299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F52" s="8">
-        <v>1.0699999999999999E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="G52" s="8">
-        <v>3.2399999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="8">
-        <v>2.24E-2</v>
+        <v>0</v>
       </c>
       <c r="I52" s="8">
-        <v>2.4799999999999999E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="J52" s="8">
-        <v>4.1000000000000003E-3</v>
+        <v>0.02</v>
       </c>
       <c r="K52" s="8">
-        <v>1.9400000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L52" s="8">
-        <v>2.93E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="M52" s="8">
-        <v>5.7999999999999996E-3</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="N52" s="8">
-        <v>1.8499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="O52" s="8">
-        <v>0.02</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="P52" s="8">
-        <v>4.4900000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="8">
         <v>0</v>
       </c>
       <c r="R52" s="8">
-        <v>4.3900000000000002E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="S52" s="8">
-        <v>3.8899999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="T52" s="8">
-        <v>3.09E-2</v>
+        <v>0</v>
       </c>
       <c r="U52" s="8">
-        <v>0</v>
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="8">
-        <v>0.1</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="C53" s="8">
-        <v>5.8799999999999998E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="D53" s="8">
-        <v>1.89E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="E53" s="8">
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F53" s="8">
-        <v>1.8200000000000001E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="G53" s="8">
-        <v>0</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="H53" s="8">
-        <v>0</v>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="I53" s="8">
-        <v>2.4400000000000002E-2</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="J53" s="8">
-        <v>0.02</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="K53" s="8">
-        <v>0</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="L53" s="8">
-        <v>2.4400000000000002E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="M53" s="8">
-        <v>9.3799999999999994E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="N53" s="8">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="O53" s="8">
-        <v>2.4400000000000002E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="P53" s="8">
-        <v>0</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="Q53" s="8">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="R53" s="8">
-        <v>1.9199999999999998E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="S53" s="8">
-        <v>0</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="T53" s="8">
-        <v>0</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="U53" s="8">
-        <v>3.1300000000000001E-2</v>
+        <v>1.18E-2</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="8">
-        <v>2.1600000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C54" s="8">
-        <v>1.9400000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D54" s="8">
-        <v>2.9700000000000001E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="E54" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="F54" s="8">
-        <v>4.58E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="G54" s="8">
-        <v>5.8599999999999999E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="H54" s="8">
-        <v>8.5900000000000004E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="I54" s="8">
-        <v>9.9599999999999994E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="J54" s="8">
-        <v>3.8899999999999997E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="K54" s="8">
-        <v>3.7499999999999999E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="L54" s="8">
-        <v>5.6099999999999997E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="M54" s="8">
-        <v>6.6100000000000006E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="N54" s="8">
-        <v>3.3300000000000003E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="O54" s="8">
-        <v>1.09E-2</v>
+        <v>0.02</v>
       </c>
       <c r="P54" s="8">
-        <v>8.2000000000000007E-3</v>
+        <v>1.17E-2</v>
       </c>
       <c r="Q54" s="8">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="R54" s="8">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="S54" s="8">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="T54" s="8">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="U54" s="8">
-        <v>1.18E-2</v>
+        <v>6.3E-3</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8">
-        <v>0</v>
+        <v>0.15290000000000001</v>
       </c>
       <c r="C55" s="8">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="D55" s="8">
-        <v>2.4299999999999999E-2</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="E55" s="8">
-        <v>3.6499999999999998E-2</v>
+        <v>0.1789</v>
       </c>
       <c r="F55" s="8">
-        <v>4.02E-2</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="G55" s="8">
-        <v>5.1000000000000004E-3</v>
+        <v>9.5399999999999999E-2</v>
       </c>
       <c r="H55" s="8">
-        <v>1.0200000000000001E-2</v>
+        <v>0.1072</v>
       </c>
       <c r="I55" s="8">
-        <v>9.2999999999999992E-3</v>
+        <v>0.1057</v>
       </c>
       <c r="J55" s="8">
-        <v>7.9000000000000008E-3</v>
+        <v>0.15629999999999999</v>
       </c>
       <c r="K55" s="8">
-        <v>1.49E-2</v>
+        <v>0.126</v>
       </c>
       <c r="L55" s="8">
-        <v>1.15E-2</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="M55" s="8">
-        <v>1.4E-2</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="N55" s="8">
-        <v>1.78E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O55" s="8">
-        <v>0.02</v>
+        <v>0.1265</v>
       </c>
       <c r="P55" s="8">
-        <v>1.17E-2</v>
+        <v>0.1404</v>
       </c>
       <c r="Q55" s="8">
-        <v>0</v>
+        <v>0.15260000000000001</v>
       </c>
       <c r="R55" s="8">
-        <v>6.3E-3</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U55" s="6" t="s">
-        <v>55</v>
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0.1694</v>
+      </c>
+      <c r="T55" s="8">
+        <v>0.159</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0.10539999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="8">
-        <v>0.15290000000000001</v>
+        <v>0</v>
       </c>
       <c r="C56" s="8">
-        <v>0.16669999999999999</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="D56" s="8">
-        <v>0.18149999999999999</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="E56" s="8">
-        <v>0.1789</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F56" s="8">
-        <v>0.13750000000000001</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="G56" s="8">
-        <v>9.5399999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H56" s="8">
-        <v>0.1072</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="I56" s="8">
-        <v>0.1057</v>
+        <v>2.23E-2</v>
       </c>
       <c r="J56" s="8">
-        <v>0.15629999999999999</v>
+        <v>3.15E-2</v>
       </c>
       <c r="K56" s="8">
-        <v>0.126</v>
+        <v>1.4E-2</v>
       </c>
       <c r="L56" s="8">
-        <v>8.4099999999999994E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="M56" s="8">
-        <v>0.11269999999999999</v>
+        <v>2.53E-2</v>
       </c>
       <c r="N56" s="8">
-        <v>0.14000000000000001</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="O56" s="8">
-        <v>0.1265</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="P56" s="8">
-        <v>0.1404</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="Q56" s="8">
-        <v>0.15260000000000001</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="R56" s="8">
-        <v>0.13950000000000001</v>
+        <v>0.1676</v>
       </c>
       <c r="S56" s="8">
-        <v>0.1694</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="T56" s="8">
-        <v>0.159</v>
+        <v>3.73E-2</v>
       </c>
       <c r="U56" s="8">
-        <v>0.10539999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="8">
-        <v>0</v>
-      </c>
-      <c r="C57" s="8">
-        <v>2.4400000000000002E-2</v>
-      </c>
-      <c r="D57" s="8">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="E57" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F57" s="8">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="G57" s="8">
-        <v>2.7E-2</v>
-      </c>
-      <c r="H57" s="8">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="I57" s="8">
-        <v>2.23E-2</v>
-      </c>
-      <c r="J57" s="8">
-        <v>3.15E-2</v>
-      </c>
-      <c r="K57" s="8">
-        <v>1.4E-2</v>
-      </c>
-      <c r="L57" s="8">
-        <v>1.44E-2</v>
-      </c>
-      <c r="M57" s="8">
-        <v>2.53E-2</v>
-      </c>
-      <c r="N57" s="8">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="O57" s="8">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="P57" s="8">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="Q57" s="8">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="R57" s="8">
-        <v>0.1676</v>
-      </c>
-      <c r="S57" s="8">
-        <v>5.5199999999999999E-2</v>
-      </c>
-      <c r="T57" s="8">
-        <v>3.73E-2</v>
-      </c>
-      <c r="U57" s="8">
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
@@ -11942,11 +11747,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z10" sqref="Z10"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14882,259 +14687,259 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="8">
-        <v>0.5</v>
+        <v>0.3846</v>
       </c>
       <c r="C46" s="8">
-        <v>0.46700000000000003</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="D46" s="8">
-        <v>0.33639999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E46" s="8">
-        <v>0.37380000000000002</v>
+        <v>0.4375</v>
       </c>
       <c r="F46" s="8">
-        <v>0.54930000000000001</v>
+        <v>0.59319999999999995</v>
       </c>
       <c r="G46" s="8">
-        <v>0.34289999999999998</v>
+        <v>0.3871</v>
       </c>
       <c r="H46" s="8">
-        <v>0.33689999999999998</v>
+        <v>0.4531</v>
       </c>
       <c r="I46" s="8">
-        <v>0.42420000000000002</v>
+        <v>0.371</v>
       </c>
       <c r="J46" s="8">
-        <v>0.43530000000000002</v>
+        <v>0.47139999999999999</v>
       </c>
       <c r="K46" s="8">
-        <v>0.4385</v>
+        <v>0.67190000000000005</v>
       </c>
       <c r="L46" s="8">
-        <v>0.48570000000000002</v>
+        <v>0.47370000000000001</v>
       </c>
       <c r="M46" s="8">
-        <v>0.4607</v>
+        <v>0.4531</v>
       </c>
       <c r="N46" s="8">
-        <v>0.46970000000000001</v>
+        <v>0.47189999999999999</v>
       </c>
       <c r="O46" s="8">
-        <v>0.41349999999999998</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="P46" s="8">
-        <v>0.38640000000000002</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="Q46" s="8">
-        <v>0.42509999999999998</v>
+        <v>0.50680000000000003</v>
       </c>
       <c r="R46" s="8">
-        <v>0.50660000000000005</v>
+        <v>0.48060000000000003</v>
       </c>
       <c r="S46" s="8">
-        <v>0.53639999999999999</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="T46" s="8">
-        <v>0.51529999999999998</v>
+        <v>0.65</v>
       </c>
       <c r="U46" s="8">
-        <v>0.47370000000000001</v>
+        <v>0.45950000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="8">
-        <v>0.3846</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="C47" s="8">
-        <v>0.46970000000000001</v>
+        <v>0.48070000000000002</v>
       </c>
       <c r="D47" s="8">
-        <v>0.3</v>
+        <v>0.57489999999999997</v>
       </c>
       <c r="E47" s="8">
-        <v>0.4375</v>
+        <v>0.53480000000000005</v>
       </c>
       <c r="F47" s="8">
-        <v>0.59319999999999995</v>
+        <v>0.59719999999999995</v>
       </c>
       <c r="G47" s="8">
-        <v>0.3871</v>
+        <v>0.63270000000000004</v>
       </c>
       <c r="H47" s="8">
-        <v>0.4531</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="I47" s="8">
-        <v>0.371</v>
+        <v>0.4274</v>
       </c>
       <c r="J47" s="8">
-        <v>0.47139999999999999</v>
+        <v>0.52739999999999998</v>
       </c>
       <c r="K47" s="8">
-        <v>0.67190000000000005</v>
+        <v>0.4783</v>
       </c>
       <c r="L47" s="8">
-        <v>0.47370000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="M47" s="8">
-        <v>0.4531</v>
+        <v>0.51670000000000005</v>
       </c>
       <c r="N47" s="8">
-        <v>0.47189999999999999</v>
+        <v>0.51439999999999997</v>
       </c>
       <c r="O47" s="8">
-        <v>0.39800000000000002</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="P47" s="8">
-        <v>0.51400000000000001</v>
+        <v>0.54139999999999999</v>
       </c>
       <c r="Q47" s="8">
-        <v>0.50680000000000003</v>
+        <v>0.61850000000000005</v>
       </c>
       <c r="R47" s="8">
-        <v>0.48060000000000003</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="S47" s="8">
-        <v>0.54200000000000004</v>
+        <v>0.51790000000000003</v>
       </c>
       <c r="T47" s="8">
-        <v>0.65</v>
+        <v>0.53380000000000005</v>
       </c>
       <c r="U47" s="8">
-        <v>0.45950000000000002</v>
+        <v>0.59419999999999995</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8">
-        <v>0.58409999999999995</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="C48" s="8">
-        <v>0.48070000000000002</v>
+        <v>0.72860000000000003</v>
       </c>
       <c r="D48" s="8">
-        <v>0.57489999999999997</v>
+        <v>0.6159</v>
       </c>
       <c r="E48" s="8">
-        <v>0.53480000000000005</v>
+        <v>0.5847</v>
       </c>
       <c r="F48" s="8">
-        <v>0.59719999999999995</v>
+        <v>0.66010000000000002</v>
       </c>
       <c r="G48" s="8">
-        <v>0.63270000000000004</v>
+        <v>0.44540000000000002</v>
       </c>
       <c r="H48" s="8">
-        <v>0.58520000000000005</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="I48" s="8">
-        <v>0.4274</v>
+        <v>0.44040000000000001</v>
       </c>
       <c r="J48" s="8">
-        <v>0.52739999999999998</v>
+        <v>0.48049999999999998</v>
       </c>
       <c r="K48" s="8">
-        <v>0.4783</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="L48" s="8">
-        <v>0.505</v>
+        <v>0.54630000000000001</v>
       </c>
       <c r="M48" s="8">
-        <v>0.51670000000000005</v>
+        <v>0.5514</v>
       </c>
       <c r="N48" s="8">
-        <v>0.51439999999999997</v>
+        <v>0.62339999999999995</v>
       </c>
       <c r="O48" s="8">
-        <v>0.52749999999999997</v>
+        <v>0.51190000000000002</v>
       </c>
       <c r="P48" s="8">
-        <v>0.54139999999999999</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="Q48" s="8">
-        <v>0.61850000000000005</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="R48" s="8">
-        <v>0.59799999999999998</v>
+        <v>0.50819999999999999</v>
       </c>
       <c r="S48" s="8">
-        <v>0.51790000000000003</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="T48" s="8">
-        <v>0.53380000000000005</v>
-      </c>
-      <c r="U48" s="8">
-        <v>0.59419999999999995</v>
+        <v>0.52659999999999996</v>
+      </c>
+      <c r="U48" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="8">
-        <v>0.66549999999999998</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="C49" s="8">
-        <v>0.72860000000000003</v>
+        <v>0.6704</v>
       </c>
       <c r="D49" s="8">
-        <v>0.6159</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="E49" s="8">
-        <v>0.5847</v>
+        <v>0.63590000000000002</v>
       </c>
       <c r="F49" s="8">
-        <v>0.66010000000000002</v>
+        <v>0.61819999999999997</v>
       </c>
       <c r="G49" s="8">
-        <v>0.44540000000000002</v>
+        <v>0.62250000000000005</v>
       </c>
       <c r="H49" s="8">
-        <v>0.46300000000000002</v>
+        <v>0.71940000000000004</v>
       </c>
       <c r="I49" s="8">
-        <v>0.44040000000000001</v>
+        <v>0.60509999999999997</v>
       </c>
       <c r="J49" s="8">
-        <v>0.48049999999999998</v>
+        <v>0.59330000000000005</v>
       </c>
       <c r="K49" s="8">
-        <v>0.55700000000000005</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="L49" s="8">
-        <v>0.54630000000000001</v>
+        <v>0.67459999999999998</v>
       </c>
       <c r="M49" s="8">
-        <v>0.5514</v>
+        <v>0.55969999999999998</v>
       </c>
       <c r="N49" s="8">
-        <v>0.62339999999999995</v>
+        <v>0.56479999999999997</v>
       </c>
       <c r="O49" s="8">
-        <v>0.51190000000000002</v>
+        <v>0.61739999999999995</v>
       </c>
       <c r="P49" s="8">
-        <v>0.59089999999999998</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="Q49" s="8">
-        <v>0.51870000000000005</v>
-      </c>
-      <c r="R49" s="8">
-        <v>0.50819999999999999</v>
-      </c>
-      <c r="S49" s="8">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="T49" s="8">
-        <v>0.52659999999999996</v>
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="U49" s="6" t="s">
         <v>55</v>
@@ -15142,521 +14947,456 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="8">
-        <v>0.67300000000000004</v>
+        <v>0.60429999999999995</v>
       </c>
       <c r="C50" s="8">
-        <v>0.6704</v>
+        <v>0.56840000000000002</v>
       </c>
       <c r="D50" s="8">
-        <v>0.63100000000000001</v>
+        <v>0.45979999999999999</v>
       </c>
       <c r="E50" s="8">
-        <v>0.63590000000000002</v>
+        <v>0.42930000000000001</v>
       </c>
       <c r="F50" s="8">
-        <v>0.61819999999999997</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="G50" s="8">
-        <v>0.62250000000000005</v>
+        <v>0.40379999999999999</v>
       </c>
       <c r="H50" s="8">
-        <v>0.71940000000000004</v>
+        <v>0.48309999999999997</v>
       </c>
       <c r="I50" s="8">
+        <v>0.52539999999999998</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0.60850000000000004</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="M50" s="8">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="N50" s="8">
         <v>0.60509999999999997</v>
       </c>
-      <c r="J50" s="8">
-        <v>0.59330000000000005</v>
-      </c>
-      <c r="K50" s="8">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="L50" s="8">
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="M50" s="8">
-        <v>0.55969999999999998</v>
-      </c>
-      <c r="N50" s="8">
-        <v>0.56479999999999997</v>
-      </c>
       <c r="O50" s="8">
-        <v>0.61739999999999995</v>
+        <v>0.67679999999999996</v>
       </c>
       <c r="P50" s="8">
-        <v>0.52029999999999998</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="Q50" s="8">
-        <v>0.58930000000000005</v>
-      </c>
-      <c r="R50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U50" s="6" t="s">
-        <v>55</v>
+        <v>0.6028</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0.50260000000000005</v>
+      </c>
+      <c r="S50" s="8">
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="T50" s="8">
+        <v>0.42570000000000002</v>
+      </c>
+      <c r="U50" s="8">
+        <v>0.4173</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="8">
-        <v>0.60429999999999995</v>
+        <v>0.68520000000000003</v>
       </c>
       <c r="C51" s="8">
-        <v>0.56840000000000002</v>
+        <v>0.63529999999999998</v>
       </c>
       <c r="D51" s="8">
-        <v>0.45979999999999999</v>
+        <v>0.56789999999999996</v>
       </c>
       <c r="E51" s="8">
-        <v>0.42930000000000001</v>
+        <v>0.58950000000000002</v>
       </c>
       <c r="F51" s="8">
-        <v>0.36840000000000001</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="G51" s="8">
-        <v>0.40379999999999999</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="H51" s="8">
-        <v>0.48309999999999997</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="I51" s="8">
-        <v>0.52539999999999998</v>
+        <v>0.54759999999999998</v>
       </c>
       <c r="J51" s="8">
-        <v>0.45450000000000002</v>
+        <v>0.57469999999999999</v>
       </c>
       <c r="K51" s="8">
-        <v>0.60850000000000004</v>
+        <v>0.49569999999999997</v>
       </c>
       <c r="L51" s="8">
-        <v>0.54879999999999995</v>
+        <v>0.48649999999999999</v>
       </c>
       <c r="M51" s="8">
-        <v>0.61219999999999997</v>
+        <v>0.49070000000000003</v>
       </c>
       <c r="N51" s="8">
-        <v>0.60509999999999997</v>
+        <v>0.50419999999999998</v>
       </c>
       <c r="O51" s="8">
-        <v>0.67679999999999996</v>
+        <v>0.47589999999999999</v>
       </c>
       <c r="P51" s="8">
-        <v>0.51060000000000005</v>
+        <v>0.51849999999999996</v>
       </c>
       <c r="Q51" s="8">
-        <v>0.6028</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="R51" s="8">
-        <v>0.50260000000000005</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="S51" s="8">
-        <v>0.51139999999999997</v>
+        <v>0.47370000000000001</v>
       </c>
       <c r="T51" s="8">
-        <v>0.42570000000000002</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="U51" s="8">
-        <v>0.4173</v>
+        <v>0.54320000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="8">
-        <v>0.68520000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="C52" s="8">
-        <v>0.63529999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="D52" s="8">
-        <v>0.56789999999999996</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="E52" s="8">
-        <v>0.58950000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="F52" s="8">
-        <v>0.59089999999999998</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="G52" s="8">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="K52" s="8">
         <v>0.54549999999999998</v>
       </c>
-      <c r="H52" s="8">
-        <v>0.51060000000000005</v>
-      </c>
-      <c r="I52" s="8">
-        <v>0.54759999999999998</v>
-      </c>
-      <c r="J52" s="8">
-        <v>0.57469999999999999</v>
-      </c>
-      <c r="K52" s="8">
-        <v>0.49569999999999997</v>
-      </c>
       <c r="L52" s="8">
-        <v>0.48649999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="M52" s="8">
-        <v>0.49070000000000003</v>
+        <v>0.3478</v>
       </c>
       <c r="N52" s="8">
-        <v>0.50419999999999998</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="O52" s="8">
-        <v>0.47589999999999999</v>
+        <v>0.51429999999999998</v>
       </c>
       <c r="P52" s="8">
-        <v>0.51849999999999996</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="Q52" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="R52" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="S52" s="8">
         <v>0.55559999999999998</v>
-      </c>
-      <c r="R52" s="8">
-        <v>0.55559999999999998</v>
-      </c>
-      <c r="S52" s="8">
-        <v>0.47370000000000001</v>
       </c>
       <c r="T52" s="8">
         <v>0.55559999999999998</v>
       </c>
       <c r="U52" s="8">
-        <v>0.54320000000000002</v>
+        <v>0.63329999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="8">
-        <v>0.25</v>
+        <v>0.41220000000000001</v>
       </c>
       <c r="C53" s="8">
-        <v>0.4</v>
+        <v>0.27460000000000001</v>
       </c>
       <c r="D53" s="8">
-        <v>0.57140000000000002</v>
+        <v>0.27910000000000001</v>
       </c>
       <c r="E53" s="8">
-        <v>0.25</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="F53" s="8">
-        <v>0.32140000000000002</v>
+        <v>0.44919999999999999</v>
       </c>
       <c r="G53" s="8">
-        <v>0.55559999999999998</v>
+        <v>0.41639999999999999</v>
       </c>
       <c r="H53" s="8">
-        <v>0.31580000000000003</v>
+        <v>0.41210000000000002</v>
       </c>
       <c r="I53" s="8">
-        <v>0.35289999999999999</v>
+        <v>0.40089999999999998</v>
       </c>
       <c r="J53" s="8">
-        <v>0.38100000000000001</v>
+        <v>0.46489999999999998</v>
       </c>
       <c r="K53" s="8">
-        <v>0.54549999999999998</v>
+        <v>0.42459999999999998</v>
       </c>
       <c r="L53" s="8">
-        <v>0.375</v>
+        <v>0.4753</v>
       </c>
       <c r="M53" s="8">
-        <v>0.3478</v>
+        <v>0.51959999999999995</v>
       </c>
       <c r="N53" s="8">
-        <v>0.41670000000000001</v>
+        <v>0.46739999999999998</v>
       </c>
       <c r="O53" s="8">
-        <v>0.51429999999999998</v>
+        <v>0.48880000000000001</v>
       </c>
       <c r="P53" s="8">
-        <v>0.45829999999999999</v>
+        <v>0.34429999999999999</v>
       </c>
       <c r="Q53" s="8">
-        <v>0.42499999999999999</v>
+        <v>0.44069999999999998</v>
       </c>
       <c r="R53" s="8">
-        <v>0.45</v>
+        <v>0.44369999999999998</v>
       </c>
       <c r="S53" s="8">
-        <v>0.55559999999999998</v>
+        <v>0.42820000000000003</v>
       </c>
       <c r="T53" s="8">
-        <v>0.55559999999999998</v>
+        <v>0.44629999999999997</v>
       </c>
       <c r="U53" s="8">
-        <v>0.63329999999999997</v>
+        <v>0.46550000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="8">
-        <v>0.41220000000000001</v>
+        <v>0.76919999999999999</v>
       </c>
       <c r="C54" s="8">
-        <v>0.27460000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="D54" s="8">
-        <v>0.27910000000000001</v>
+        <v>0.32740000000000002</v>
       </c>
       <c r="E54" s="8">
-        <v>0.33150000000000002</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="F54" s="8">
-        <v>0.44919999999999999</v>
+        <v>0.4128</v>
       </c>
       <c r="G54" s="8">
-        <v>0.41639999999999999</v>
+        <v>0.50509999999999999</v>
       </c>
       <c r="H54" s="8">
-        <v>0.41210000000000002</v>
+        <v>0.47760000000000002</v>
       </c>
       <c r="I54" s="8">
-        <v>0.40089999999999998</v>
+        <v>0.58440000000000003</v>
       </c>
       <c r="J54" s="8">
-        <v>0.46489999999999998</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="K54" s="8">
-        <v>0.42459999999999998</v>
+        <v>0.46</v>
       </c>
       <c r="L54" s="8">
-        <v>0.4753</v>
+        <v>0.45629999999999998</v>
       </c>
       <c r="M54" s="8">
-        <v>0.51959999999999995</v>
+        <v>0.38240000000000002</v>
       </c>
       <c r="N54" s="8">
-        <v>0.46739999999999998</v>
+        <v>0.57720000000000005</v>
       </c>
       <c r="O54" s="8">
-        <v>0.48880000000000001</v>
+        <v>0.45860000000000001</v>
       </c>
       <c r="P54" s="8">
-        <v>0.34429999999999999</v>
+        <v>0.5524</v>
       </c>
       <c r="Q54" s="8">
-        <v>0.44069999999999998</v>
+        <v>0.4783</v>
       </c>
       <c r="R54" s="8">
-        <v>0.44369999999999998</v>
-      </c>
-      <c r="S54" s="8">
-        <v>0.42820000000000003</v>
-      </c>
-      <c r="T54" s="8">
-        <v>0.44629999999999997</v>
-      </c>
-      <c r="U54" s="8">
-        <v>0.46550000000000002</v>
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8">
-        <v>0.76919999999999999</v>
+        <v>0.2437</v>
       </c>
       <c r="C55" s="8">
-        <v>0.25</v>
+        <v>0.2485</v>
       </c>
       <c r="D55" s="8">
-        <v>0.32740000000000002</v>
+        <v>0.28820000000000001</v>
       </c>
       <c r="E55" s="8">
-        <v>0.53700000000000003</v>
+        <v>0.40770000000000001</v>
       </c>
       <c r="F55" s="8">
-        <v>0.4128</v>
+        <v>0.47049999999999997</v>
       </c>
       <c r="G55" s="8">
-        <v>0.50509999999999999</v>
+        <v>0.45950000000000002</v>
       </c>
       <c r="H55" s="8">
-        <v>0.47760000000000002</v>
+        <v>0.5222</v>
       </c>
       <c r="I55" s="8">
-        <v>0.58440000000000003</v>
+        <v>0.47570000000000001</v>
       </c>
       <c r="J55" s="8">
-        <v>0.80700000000000005</v>
+        <v>0.52280000000000004</v>
       </c>
       <c r="K55" s="8">
-        <v>0.46</v>
+        <v>0.50690000000000002</v>
       </c>
       <c r="L55" s="8">
-        <v>0.45629999999999998</v>
+        <v>0.60529999999999995</v>
       </c>
       <c r="M55" s="8">
-        <v>0.38240000000000002</v>
+        <v>0.52210000000000001</v>
       </c>
       <c r="N55" s="8">
-        <v>0.57720000000000005</v>
+        <v>0.48849999999999999</v>
       </c>
       <c r="O55" s="8">
-        <v>0.45860000000000001</v>
+        <v>0.47739999999999999</v>
       </c>
       <c r="P55" s="8">
-        <v>0.5524</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="Q55" s="8">
-        <v>0.4783</v>
+        <v>0.46589999999999998</v>
       </c>
       <c r="R55" s="8">
-        <v>0.56030000000000002</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U55" s="6" t="s">
-        <v>55</v>
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0.4536</v>
+      </c>
+      <c r="T55" s="8">
+        <v>0.43080000000000002</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0.46560000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="8">
-        <v>0.2437</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="C56" s="8">
-        <v>0.2485</v>
+        <v>0.44669999999999999</v>
       </c>
       <c r="D56" s="8">
-        <v>0.28820000000000001</v>
+        <v>0.50560000000000005</v>
       </c>
       <c r="E56" s="8">
-        <v>0.40770000000000001</v>
+        <v>0.5403</v>
       </c>
       <c r="F56" s="8">
-        <v>0.47049999999999997</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="G56" s="8">
-        <v>0.45950000000000002</v>
+        <v>0.50719999999999998</v>
       </c>
       <c r="H56" s="8">
-        <v>0.5222</v>
+        <v>0.46410000000000001</v>
       </c>
       <c r="I56" s="8">
-        <v>0.47570000000000001</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="J56" s="8">
-        <v>0.52280000000000004</v>
+        <v>0.4753</v>
       </c>
       <c r="K56" s="8">
-        <v>0.50690000000000002</v>
+        <v>0.55969999999999998</v>
       </c>
       <c r="L56" s="8">
-        <v>0.60529999999999995</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="M56" s="8">
-        <v>0.52210000000000001</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="N56" s="8">
-        <v>0.48849999999999999</v>
+        <v>0.51139999999999997</v>
       </c>
       <c r="O56" s="8">
-        <v>0.47739999999999999</v>
+        <v>0.57240000000000002</v>
       </c>
       <c r="P56" s="8">
-        <v>0.56200000000000006</v>
+        <v>0.57430000000000003</v>
       </c>
       <c r="Q56" s="8">
-        <v>0.46589999999999998</v>
+        <v>0.503</v>
       </c>
       <c r="R56" s="8">
-        <v>0.53879999999999995</v>
+        <v>0.33160000000000001</v>
       </c>
       <c r="S56" s="8">
-        <v>0.4536</v>
+        <v>0.68859999999999999</v>
       </c>
       <c r="T56" s="8">
-        <v>0.43080000000000002</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="U56" s="8">
-        <v>0.46560000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="8">
-        <v>0.55559999999999998</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0.44669999999999999</v>
-      </c>
-      <c r="D57" s="8">
-        <v>0.50560000000000005</v>
-      </c>
-      <c r="E57" s="8">
-        <v>0.5403</v>
-      </c>
-      <c r="F57" s="8">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0.50719999999999998</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0.46410000000000001</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0.57779999999999998</v>
-      </c>
-      <c r="J57" s="8">
-        <v>0.4753</v>
-      </c>
-      <c r="K57" s="8">
-        <v>0.55969999999999998</v>
-      </c>
-      <c r="L57" s="8">
-        <v>0.45140000000000002</v>
-      </c>
-      <c r="M57" s="8">
-        <v>0.45450000000000002</v>
-      </c>
-      <c r="N57" s="8">
-        <v>0.51139999999999997</v>
-      </c>
-      <c r="O57" s="8">
-        <v>0.57240000000000002</v>
-      </c>
-      <c r="P57" s="8">
-        <v>0.57430000000000003</v>
-      </c>
-      <c r="Q57" s="8">
-        <v>0.503</v>
-      </c>
-      <c r="R57" s="8">
-        <v>0.33160000000000001</v>
-      </c>
-      <c r="S57" s="8">
-        <v>0.68859999999999999</v>
-      </c>
-      <c r="T57" s="8">
-        <v>0.79120000000000001</v>
-      </c>
-      <c r="U57" s="8">
         <v>0.68920000000000003</v>
       </c>
     </row>
@@ -15673,11 +15413,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z30" sqref="Z30"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18613,259 +18353,259 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="8">
-        <v>0.45760000000000001</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="C46" s="8">
-        <v>0.42859999999999998</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="D46" s="8">
-        <v>0.59450000000000003</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="E46" s="8">
-        <v>0.58409999999999995</v>
+        <v>0.54690000000000005</v>
       </c>
       <c r="F46" s="8">
-        <v>0.41120000000000001</v>
+        <v>0.35589999999999999</v>
       </c>
       <c r="G46" s="8">
-        <v>0.6</v>
+        <v>0.5323</v>
       </c>
       <c r="H46" s="8">
-        <v>0.60929999999999995</v>
+        <v>0.4531</v>
       </c>
       <c r="I46" s="8">
-        <v>0.53639999999999999</v>
+        <v>0.5968</v>
       </c>
       <c r="J46" s="8">
-        <v>0.53939999999999999</v>
+        <v>0.48570000000000002</v>
       </c>
       <c r="K46" s="8">
-        <v>0.53069999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="L46" s="8">
-        <v>0.48830000000000001</v>
+        <v>0.44740000000000002</v>
       </c>
       <c r="M46" s="8">
-        <v>0.50949999999999995</v>
+        <v>0.53129999999999999</v>
       </c>
       <c r="N46" s="8">
-        <v>0.50129999999999997</v>
+        <v>0.47189999999999999</v>
       </c>
       <c r="O46" s="8">
-        <v>0.55069999999999997</v>
+        <v>0.53059999999999996</v>
       </c>
       <c r="P46" s="8">
-        <v>0.58679999999999999</v>
+        <v>0.38319999999999999</v>
       </c>
       <c r="Q46" s="8">
-        <v>0.55940000000000001</v>
+        <v>0.42470000000000002</v>
       </c>
       <c r="R46" s="8">
-        <v>0.47349999999999998</v>
+        <v>0.4264</v>
       </c>
       <c r="S46" s="8">
-        <v>0.434</v>
+        <v>0.43509999999999999</v>
       </c>
       <c r="T46" s="8">
-        <v>0.44169999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="U46" s="8">
-        <v>0.49580000000000002</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="8">
-        <v>0.61539999999999995</v>
+        <v>0.3982</v>
       </c>
       <c r="C47" s="8">
-        <v>0.46970000000000001</v>
+        <v>0.47639999999999999</v>
       </c>
       <c r="D47" s="8">
-        <v>0.64290000000000003</v>
+        <v>0.41520000000000001</v>
       </c>
       <c r="E47" s="8">
-        <v>0.54690000000000005</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="F47" s="8">
-        <v>0.35589999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="G47" s="8">
-        <v>0.5323</v>
+        <v>0.30969999999999998</v>
       </c>
       <c r="H47" s="8">
-        <v>0.4531</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="I47" s="8">
-        <v>0.5968</v>
+        <v>0.41920000000000002</v>
       </c>
       <c r="J47" s="8">
-        <v>0.48570000000000002</v>
+        <v>0.4224</v>
       </c>
       <c r="K47" s="8">
-        <v>0.25</v>
+        <v>0.46060000000000001</v>
       </c>
       <c r="L47" s="8">
-        <v>0.44740000000000002</v>
+        <v>0.43759999999999999</v>
       </c>
       <c r="M47" s="8">
-        <v>0.53129999999999999</v>
+        <v>0.4209</v>
       </c>
       <c r="N47" s="8">
-        <v>0.47189999999999999</v>
+        <v>0.42230000000000001</v>
       </c>
       <c r="O47" s="8">
-        <v>0.53059999999999996</v>
+        <v>0.4098</v>
       </c>
       <c r="P47" s="8">
-        <v>0.38319999999999999</v>
+        <v>0.40560000000000002</v>
       </c>
       <c r="Q47" s="8">
-        <v>0.42470000000000002</v>
+        <v>0.34139999999999998</v>
       </c>
       <c r="R47" s="8">
-        <v>0.4264</v>
+        <v>0.36270000000000002</v>
       </c>
       <c r="S47" s="8">
-        <v>0.43509999999999999</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="T47" s="8">
-        <v>0.32</v>
+        <v>0.4199</v>
       </c>
       <c r="U47" s="8">
-        <v>0.47299999999999998</v>
+        <v>0.36730000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8">
-        <v>0.3982</v>
+        <v>0.31419999999999998</v>
       </c>
       <c r="C48" s="8">
-        <v>0.47639999999999999</v>
+        <v>0.26569999999999999</v>
       </c>
       <c r="D48" s="8">
-        <v>0.41520000000000001</v>
+        <v>0.37680000000000002</v>
       </c>
       <c r="E48" s="8">
-        <v>0.45079999999999998</v>
+        <v>0.38929999999999998</v>
       </c>
       <c r="F48" s="8">
-        <v>0.375</v>
+        <v>0.31929999999999997</v>
       </c>
       <c r="G48" s="8">
-        <v>0.30969999999999998</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="H48" s="8">
-        <v>0.37069999999999997</v>
+        <v>0.50170000000000003</v>
       </c>
       <c r="I48" s="8">
-        <v>0.41920000000000002</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="J48" s="8">
-        <v>0.4224</v>
+        <v>0.48959999999999998</v>
       </c>
       <c r="K48" s="8">
-        <v>0.46060000000000001</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="L48" s="8">
-        <v>0.43759999999999999</v>
+        <v>0.39810000000000001</v>
       </c>
       <c r="M48" s="8">
-        <v>0.4209</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="N48" s="8">
-        <v>0.42230000000000001</v>
+        <v>0.29189999999999999</v>
       </c>
       <c r="O48" s="8">
-        <v>0.4098</v>
+        <v>0.42409999999999998</v>
       </c>
       <c r="P48" s="8">
-        <v>0.40560000000000002</v>
+        <v>0.36209999999999998</v>
       </c>
       <c r="Q48" s="8">
-        <v>0.34139999999999998</v>
+        <v>0.4451</v>
       </c>
       <c r="R48" s="8">
-        <v>0.36270000000000002</v>
+        <v>0.43869999999999998</v>
       </c>
       <c r="S48" s="8">
-        <v>0.42749999999999999</v>
+        <v>0.45179999999999998</v>
       </c>
       <c r="T48" s="8">
-        <v>0.4199</v>
-      </c>
-      <c r="U48" s="8">
-        <v>0.36730000000000002</v>
+        <v>0.42359999999999998</v>
+      </c>
+      <c r="U48" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="8">
-        <v>0.31419999999999998</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="C49" s="8">
-        <v>0.26569999999999999</v>
+        <v>0.24940000000000001</v>
       </c>
       <c r="D49" s="8">
-        <v>0.37680000000000002</v>
+        <v>0.30230000000000001</v>
       </c>
       <c r="E49" s="8">
-        <v>0.38929999999999998</v>
+        <v>0.31490000000000001</v>
       </c>
       <c r="F49" s="8">
-        <v>0.31929999999999997</v>
+        <v>0.32750000000000001</v>
       </c>
       <c r="G49" s="8">
-        <v>0.53210000000000002</v>
+        <v>0.34439999999999998</v>
       </c>
       <c r="H49" s="8">
-        <v>0.50170000000000003</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="I49" s="8">
-        <v>0.53839999999999999</v>
+        <v>0.31359999999999999</v>
       </c>
       <c r="J49" s="8">
-        <v>0.48959999999999998</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="K49" s="8">
-        <v>0.39900000000000002</v>
+        <v>0.37930000000000003</v>
       </c>
       <c r="L49" s="8">
-        <v>0.39810000000000001</v>
+        <v>0.29549999999999998</v>
       </c>
       <c r="M49" s="8">
-        <v>0.37619999999999998</v>
+        <v>0.4113</v>
       </c>
       <c r="N49" s="8">
-        <v>0.29189999999999999</v>
+        <v>0.4113</v>
       </c>
       <c r="O49" s="8">
-        <v>0.42409999999999998</v>
+        <v>0.37109999999999999</v>
       </c>
       <c r="P49" s="8">
-        <v>0.36209999999999998</v>
+        <v>0.41489999999999999</v>
       </c>
       <c r="Q49" s="8">
-        <v>0.4451</v>
-      </c>
-      <c r="R49" s="8">
-        <v>0.43869999999999998</v>
-      </c>
-      <c r="S49" s="8">
-        <v>0.45179999999999998</v>
-      </c>
-      <c r="T49" s="8">
-        <v>0.42359999999999998</v>
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="U49" s="6" t="s">
         <v>55</v>
@@ -18873,521 +18613,456 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="8">
-        <v>0.18870000000000001</v>
+        <v>0.39129999999999998</v>
       </c>
       <c r="C50" s="8">
-        <v>0.24940000000000001</v>
+        <v>0.38950000000000001</v>
       </c>
       <c r="D50" s="8">
-        <v>0.30230000000000001</v>
+        <v>0.51719999999999999</v>
       </c>
       <c r="E50" s="8">
-        <v>0.31490000000000001</v>
+        <v>0.57069999999999999</v>
       </c>
       <c r="F50" s="8">
-        <v>0.32750000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G50" s="8">
-        <v>0.34439999999999998</v>
+        <v>0.57689999999999997</v>
       </c>
       <c r="H50" s="8">
-        <v>0.24049999999999999</v>
+        <v>0.50239999999999996</v>
       </c>
       <c r="I50" s="8">
-        <v>0.31359999999999999</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="J50" s="8">
-        <v>0.30249999999999999</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="K50" s="8">
-        <v>0.37930000000000003</v>
+        <v>0.34910000000000002</v>
       </c>
       <c r="L50" s="8">
-        <v>0.29549999999999998</v>
+        <v>0.4047</v>
       </c>
       <c r="M50" s="8">
-        <v>0.4113</v>
+        <v>0.34689999999999999</v>
       </c>
       <c r="N50" s="8">
-        <v>0.4113</v>
+        <v>0.34870000000000001</v>
       </c>
       <c r="O50" s="8">
-        <v>0.37109999999999999</v>
+        <v>0.27779999999999999</v>
       </c>
       <c r="P50" s="8">
-        <v>0.41489999999999999</v>
+        <v>0.47070000000000001</v>
       </c>
       <c r="Q50" s="8">
-        <v>0.37880000000000003</v>
-      </c>
-      <c r="R50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U50" s="6" t="s">
-        <v>55</v>
+        <v>0.37230000000000002</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0.4471</v>
+      </c>
+      <c r="S50" s="8">
+        <v>0.46579999999999999</v>
+      </c>
+      <c r="T50" s="8">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="U50" s="8">
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="8">
-        <v>0.39129999999999998</v>
+        <v>0.29630000000000001</v>
       </c>
       <c r="C51" s="8">
-        <v>0.38950000000000001</v>
+        <v>0.32940000000000003</v>
       </c>
       <c r="D51" s="8">
-        <v>0.51719999999999999</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E51" s="8">
-        <v>0.57069999999999999</v>
+        <v>0.3579</v>
       </c>
       <c r="F51" s="8">
-        <v>0.6</v>
+        <v>0.32950000000000002</v>
       </c>
       <c r="G51" s="8">
-        <v>0.57689999999999997</v>
+        <v>0.3977</v>
       </c>
       <c r="H51" s="8">
-        <v>0.50239999999999996</v>
+        <v>0.42549999999999999</v>
       </c>
       <c r="I51" s="8">
-        <v>0.45760000000000001</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="J51" s="8">
-        <v>0.52839999999999998</v>
+        <v>0.39079999999999998</v>
       </c>
       <c r="K51" s="8">
-        <v>0.34910000000000002</v>
+        <v>0.43590000000000001</v>
       </c>
       <c r="L51" s="8">
-        <v>0.4047</v>
+        <v>0.4955</v>
       </c>
       <c r="M51" s="8">
-        <v>0.34689999999999999</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="N51" s="8">
-        <v>0.34870000000000001</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="O51" s="8">
-        <v>0.27779999999999999</v>
+        <v>0.48970000000000002</v>
       </c>
       <c r="P51" s="8">
-        <v>0.47070000000000001</v>
+        <v>0.39510000000000001</v>
       </c>
       <c r="Q51" s="8">
-        <v>0.37230000000000002</v>
+        <v>0.41270000000000001</v>
       </c>
       <c r="R51" s="8">
-        <v>0.4471</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="S51" s="8">
-        <v>0.46579999999999999</v>
+        <v>0.47370000000000001</v>
       </c>
       <c r="T51" s="8">
-        <v>0.53800000000000003</v>
+        <v>0.4017</v>
       </c>
       <c r="U51" s="8">
-        <v>0.51800000000000002</v>
+        <v>0.41980000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="8">
-        <v>0.29630000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="C52" s="8">
-        <v>0.32940000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="D52" s="8">
-        <v>0.33329999999999999</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="E52" s="8">
-        <v>0.3579</v>
+        <v>0.5625</v>
       </c>
       <c r="F52" s="8">
-        <v>0.32950000000000002</v>
+        <v>0.60709999999999997</v>
       </c>
       <c r="G52" s="8">
-        <v>0.3977</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="H52" s="8">
-        <v>0.42549999999999999</v>
+        <v>0.57889999999999997</v>
       </c>
       <c r="I52" s="8">
-        <v>0.36899999999999999</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="J52" s="8">
-        <v>0.39079999999999998</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="K52" s="8">
-        <v>0.43590000000000001</v>
+        <v>0.40910000000000002</v>
       </c>
       <c r="L52" s="8">
-        <v>0.4955</v>
+        <v>0.46879999999999999</v>
       </c>
       <c r="M52" s="8">
-        <v>0.48149999999999998</v>
+        <v>0.60870000000000002</v>
       </c>
       <c r="N52" s="8">
-        <v>0.47060000000000002</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="O52" s="8">
-        <v>0.48970000000000002</v>
+        <v>0.45710000000000001</v>
       </c>
       <c r="P52" s="8">
-        <v>0.39510000000000001</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="Q52" s="8">
-        <v>0.41270000000000001</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="R52" s="8">
-        <v>0.40400000000000003</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="S52" s="8">
-        <v>0.47370000000000001</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="T52" s="8">
-        <v>0.4017</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="U52" s="8">
-        <v>0.41980000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="8">
-        <v>0.75</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="C53" s="8">
-        <v>0.4</v>
+        <v>0.69259999999999999</v>
       </c>
       <c r="D53" s="8">
-        <v>0.42859999999999998</v>
+        <v>0.67210000000000003</v>
       </c>
       <c r="E53" s="8">
-        <v>0.5625</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="F53" s="8">
-        <v>0.60709999999999997</v>
+        <v>0.4924</v>
       </c>
       <c r="G53" s="8">
-        <v>0.44440000000000002</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="H53" s="8">
-        <v>0.57889999999999997</v>
+        <v>0.5151</v>
       </c>
       <c r="I53" s="8">
-        <v>0.58819999999999995</v>
+        <v>0.53559999999999997</v>
       </c>
       <c r="J53" s="8">
-        <v>0.47620000000000001</v>
+        <v>0.50080000000000002</v>
       </c>
       <c r="K53" s="8">
-        <v>0.40910000000000002</v>
+        <v>0.54039999999999999</v>
       </c>
       <c r="L53" s="8">
-        <v>0.46879999999999999</v>
+        <v>0.4486</v>
       </c>
       <c r="M53" s="8">
-        <v>0.60870000000000002</v>
+        <v>0.41959999999999997</v>
       </c>
       <c r="N53" s="8">
-        <v>0.54169999999999996</v>
+        <v>0.49780000000000002</v>
       </c>
       <c r="O53" s="8">
-        <v>0.45710000000000001</v>
+        <v>0.48649999999999999</v>
       </c>
       <c r="P53" s="8">
-        <v>0.45829999999999999</v>
+        <v>0.64149999999999996</v>
       </c>
       <c r="Q53" s="8">
-        <v>0.52500000000000002</v>
+        <v>0.53979999999999995</v>
       </c>
       <c r="R53" s="8">
-        <v>0.47499999999999998</v>
+        <v>0.53239999999999998</v>
       </c>
       <c r="S53" s="8">
-        <v>0.40739999999999998</v>
+        <v>0.55940000000000001</v>
       </c>
       <c r="T53" s="8">
-        <v>0.41670000000000001</v>
+        <v>0.54449999999999998</v>
       </c>
       <c r="U53" s="8">
-        <v>0.3</v>
+        <v>0.51719999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="8">
-        <v>0.54200000000000004</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="C54" s="8">
-        <v>0.69259999999999999</v>
+        <v>0.73609999999999998</v>
       </c>
       <c r="D54" s="8">
-        <v>0.67210000000000003</v>
+        <v>0.63719999999999999</v>
       </c>
       <c r="E54" s="8">
-        <v>0.62860000000000005</v>
+        <v>0.43519999999999998</v>
       </c>
       <c r="F54" s="8">
-        <v>0.4924</v>
+        <v>0.52290000000000003</v>
       </c>
       <c r="G54" s="8">
-        <v>0.53100000000000003</v>
+        <v>0.46460000000000001</v>
       </c>
       <c r="H54" s="8">
-        <v>0.5151</v>
+        <v>0.47760000000000002</v>
       </c>
       <c r="I54" s="8">
-        <v>0.53559999999999997</v>
+        <v>0.37659999999999999</v>
       </c>
       <c r="J54" s="8">
-        <v>0.50080000000000002</v>
+        <v>0.1754</v>
       </c>
       <c r="K54" s="8">
-        <v>0.54039999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="L54" s="8">
-        <v>0.4486</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="M54" s="8">
-        <v>0.41959999999999997</v>
+        <v>0.56859999999999999</v>
       </c>
       <c r="N54" s="8">
-        <v>0.49780000000000002</v>
+        <v>0.3821</v>
       </c>
       <c r="O54" s="8">
-        <v>0.48649999999999999</v>
+        <v>0.49619999999999997</v>
       </c>
       <c r="P54" s="8">
-        <v>0.64149999999999996</v>
+        <v>0.39050000000000001</v>
       </c>
       <c r="Q54" s="8">
-        <v>0.53979999999999995</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="R54" s="8">
-        <v>0.53239999999999998</v>
-      </c>
-      <c r="S54" s="8">
-        <v>0.55940000000000001</v>
-      </c>
-      <c r="T54" s="8">
-        <v>0.54449999999999998</v>
-      </c>
-      <c r="U54" s="8">
-        <v>0.51719999999999999</v>
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8">
-        <v>0.23080000000000001</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="C55" s="8">
-        <v>0.73609999999999998</v>
+        <v>0.63070000000000004</v>
       </c>
       <c r="D55" s="8">
-        <v>0.63719999999999999</v>
+        <v>0.58409999999999995</v>
       </c>
       <c r="E55" s="8">
-        <v>0.43519999999999998</v>
+        <v>0.39810000000000001</v>
       </c>
       <c r="F55" s="8">
-        <v>0.52290000000000003</v>
+        <v>0.3926</v>
       </c>
       <c r="G55" s="8">
-        <v>0.46460000000000001</v>
+        <v>0.40839999999999999</v>
       </c>
       <c r="H55" s="8">
-        <v>0.47760000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="I55" s="8">
-        <v>0.37659999999999999</v>
+        <v>0.42009999999999997</v>
       </c>
       <c r="J55" s="8">
-        <v>0.1754</v>
+        <v>0.29630000000000001</v>
       </c>
       <c r="K55" s="8">
-        <v>0.49</v>
+        <v>0.3261</v>
       </c>
       <c r="L55" s="8">
-        <v>0.53400000000000003</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="M55" s="8">
-        <v>0.56859999999999999</v>
+        <v>0.40649999999999997</v>
       </c>
       <c r="N55" s="8">
-        <v>0.3821</v>
+        <v>0.38319999999999999</v>
       </c>
       <c r="O55" s="8">
-        <v>0.49619999999999997</v>
+        <v>0.37809999999999999</v>
       </c>
       <c r="P55" s="8">
-        <v>0.39050000000000001</v>
+        <v>0.25380000000000003</v>
       </c>
       <c r="Q55" s="8">
-        <v>0.48699999999999999</v>
+        <v>0.3548</v>
       </c>
       <c r="R55" s="8">
-        <v>0.39660000000000001</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U55" s="6" t="s">
-        <v>55</v>
+        <v>0.31630000000000003</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="T55" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="8">
-        <v>0.63100000000000001</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="C56" s="8">
-        <v>0.63070000000000004</v>
+        <v>0.49330000000000002</v>
       </c>
       <c r="D56" s="8">
-        <v>0.58409999999999995</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="E56" s="8">
-        <v>0.39810000000000001</v>
+        <v>0.44550000000000001</v>
       </c>
       <c r="F56" s="8">
-        <v>0.3926</v>
+        <v>0.38429999999999997</v>
       </c>
       <c r="G56" s="8">
-        <v>0.40839999999999999</v>
+        <v>0.44979999999999998</v>
       </c>
       <c r="H56" s="8">
-        <v>0.4</v>
+        <v>0.48520000000000002</v>
       </c>
       <c r="I56" s="8">
-        <v>0.42009999999999997</v>
+        <v>0.3911</v>
       </c>
       <c r="J56" s="8">
-        <v>0.29630000000000001</v>
+        <v>0.48770000000000002</v>
       </c>
       <c r="K56" s="8">
-        <v>0.3261</v>
+        <v>0.41789999999999999</v>
       </c>
       <c r="L56" s="8">
-        <v>0.35639999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="M56" s="8">
-        <v>0.40649999999999997</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="N56" s="8">
-        <v>0.38319999999999999</v>
+        <v>0.4602</v>
       </c>
       <c r="O56" s="8">
-        <v>0.37809999999999999</v>
+        <v>0.38819999999999999</v>
       </c>
       <c r="P56" s="8">
-        <v>0.25380000000000003</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="Q56" s="8">
-        <v>0.3548</v>
+        <v>0.43709999999999999</v>
       </c>
       <c r="R56" s="8">
-        <v>0.31630000000000003</v>
+        <v>9.4E-2</v>
       </c>
       <c r="S56" s="8">
-        <v>0.40960000000000002</v>
+        <v>0.20960000000000001</v>
       </c>
       <c r="T56" s="8">
-        <v>0.42</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="U56" s="8">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="8">
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0.49330000000000002</v>
-      </c>
-      <c r="D57" s="8">
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="E57" s="8">
-        <v>0.44550000000000001</v>
-      </c>
-      <c r="F57" s="8">
-        <v>0.38429999999999997</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0.44979999999999998</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0.48520000000000002</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0.3911</v>
-      </c>
-      <c r="J57" s="8">
-        <v>0.48770000000000002</v>
-      </c>
-      <c r="K57" s="8">
-        <v>0.41789999999999999</v>
-      </c>
-      <c r="L57" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="M57" s="8">
-        <v>0.54549999999999998</v>
-      </c>
-      <c r="N57" s="8">
-        <v>0.4602</v>
-      </c>
-      <c r="O57" s="8">
-        <v>0.38819999999999999</v>
-      </c>
-      <c r="P57" s="8">
-        <v>0.37159999999999999</v>
-      </c>
-      <c r="Q57" s="8">
-        <v>0.43709999999999999</v>
-      </c>
-      <c r="R57" s="8">
-        <v>9.4E-2</v>
-      </c>
-      <c r="S57" s="8">
-        <v>0.20960000000000001</v>
-      </c>
-      <c r="T57" s="8">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="U57" s="8">
         <v>0.27029999999999998</v>
       </c>
     </row>
@@ -19404,11 +19079,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22344,259 +22019,259 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="8">
-        <v>4.24E-2</v>
+        <v>0</v>
       </c>
       <c r="C46" s="8">
-        <v>0.10440000000000001</v>
+        <v>6.0600000000000001E-2</v>
       </c>
       <c r="D46" s="8">
-        <v>6.9099999999999995E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="E46" s="8">
-        <v>4.2099999999999999E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="F46" s="8">
-        <v>3.95E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="G46" s="8">
-        <v>5.7099999999999998E-2</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="H46" s="8">
-        <v>5.3800000000000001E-2</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="I46" s="8">
-        <v>3.9399999999999998E-2</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="J46" s="8">
-        <v>2.52E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="K46" s="8">
-        <v>3.0700000000000002E-2</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="L46" s="8">
-        <v>2.5999999999999999E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="M46" s="8">
-        <v>2.98E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="N46" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="O46" s="8">
-        <v>3.5799999999999998E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="P46" s="8">
-        <v>2.6800000000000001E-2</v>
+        <v>0.1028</v>
       </c>
       <c r="Q46" s="8">
-        <v>1.55E-2</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="R46" s="8">
-        <v>1.9900000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="S46" s="8">
-        <v>2.9600000000000001E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="T46" s="8">
-        <v>4.2900000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="U46" s="8">
-        <v>3.0499999999999999E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="8">
-        <v>0</v>
+        <v>1.77E-2</v>
       </c>
       <c r="C47" s="8">
-        <v>6.0600000000000001E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="D47" s="8">
-        <v>5.7099999999999998E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E47" s="8">
-        <v>1.5599999999999999E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="F47" s="8">
-        <v>5.0799999999999998E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="G47" s="8">
-        <v>8.0600000000000005E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="H47" s="8">
-        <v>9.3799999999999994E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="I47" s="8">
-        <v>3.2300000000000002E-2</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="J47" s="8">
-        <v>4.2900000000000001E-2</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="K47" s="8">
-        <v>7.8100000000000003E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="L47" s="8">
-        <v>7.8899999999999998E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="M47" s="8">
-        <v>1.5599999999999999E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="N47" s="8">
-        <v>5.62E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="O47" s="8">
-        <v>7.1400000000000005E-2</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="P47" s="8">
-        <v>0.1028</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="Q47" s="8">
-        <v>6.8500000000000005E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="R47" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="S47" s="8">
-        <v>2.29E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="T47" s="8">
-        <v>0.03</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="U47" s="8">
-        <v>6.7599999999999993E-2</v>
+        <v>3.85E-2</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8">
-        <v>1.77E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="C48" s="8">
-        <v>4.2900000000000001E-2</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="D48" s="8">
-        <v>0.01</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="E48" s="8">
-        <v>1.44E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F48" s="8">
-        <v>2.7799999999999998E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="G48" s="8">
-        <v>5.7500000000000002E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="H48" s="8">
-        <v>4.41E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="I48" s="8">
-        <v>0.15329999999999999</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="J48" s="8">
-        <v>5.0200000000000002E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="K48" s="8">
-        <v>6.0999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="L48" s="8">
-        <v>5.74E-2</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="M48" s="8">
-        <v>6.2399999999999997E-2</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="N48" s="8">
-        <v>6.3299999999999995E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="O48" s="8">
-        <v>6.2700000000000006E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="P48" s="8">
-        <v>5.2900000000000003E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="Q48" s="8">
-        <v>4.02E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="R48" s="8">
-        <v>3.9199999999999999E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="S48" s="8">
-        <v>5.4600000000000003E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="T48" s="8">
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="U48" s="8">
-        <v>3.85E-2</v>
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="U48" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="8">
-        <v>2.0299999999999999E-2</v>
+        <v>0.1384</v>
       </c>
       <c r="C49" s="8">
-        <v>5.7000000000000002E-3</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="D49" s="8">
-        <v>7.1999999999999998E-3</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="E49" s="8">
-        <v>2.5999999999999999E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="F49" s="8">
-        <v>2.06E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="G49" s="8">
-        <v>2.2499999999999999E-2</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="H49" s="8">
-        <v>3.5400000000000001E-2</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="I49" s="8">
-        <v>2.1299999999999999E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="J49" s="8">
+        <v>0.1042</v>
+      </c>
+      <c r="K49" s="8">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="L49" s="8">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="K49" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="L49" s="8">
-        <v>5.5599999999999997E-2</v>
-      </c>
       <c r="M49" s="8">
-        <v>7.2300000000000003E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="N49" s="8">
-        <v>8.4699999999999998E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="O49" s="8">
-        <v>6.4000000000000001E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="P49" s="8">
-        <v>4.7E-2</v>
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="Q49" s="8">
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="R49" s="8">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="S49" s="8">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="T49" s="8">
-        <v>4.9799999999999997E-2</v>
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="U49" s="6" t="s">
         <v>55</v>
@@ -22604,521 +22279,456 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="8">
-        <v>0.1384</v>
+        <v>4.3E-3</v>
       </c>
       <c r="C50" s="8">
-        <v>8.0199999999999994E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="D50" s="8">
-        <v>6.6699999999999995E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E50" s="8">
-        <v>4.9200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F50" s="8">
-        <v>5.4300000000000001E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="G50" s="8">
-        <v>3.3099999999999997E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="H50" s="8">
-        <v>4.0099999999999997E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="I50" s="8">
-        <v>8.14E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="J50" s="8">
-        <v>0.1042</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="K50" s="8">
-        <v>8.9700000000000002E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="L50" s="8">
-        <v>2.9899999999999999E-2</v>
+        <v>4.65E-2</v>
       </c>
       <c r="M50" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="N50" s="8">
-        <v>2.3900000000000001E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="O50" s="8">
-        <v>1.15E-2</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="P50" s="8">
-        <v>6.4899999999999999E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="Q50" s="8">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="R50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U50" s="6" t="s">
-        <v>55</v>
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="R50" s="8">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="S50" s="8">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="T50" s="8">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="U50" s="8">
+        <v>6.4699999999999994E-2</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="8">
-        <v>4.3E-3</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="C51" s="8">
-        <v>4.2099999999999999E-2</v>
+        <v>3.5299999999999998E-2</v>
       </c>
       <c r="D51" s="8">
-        <v>2.3E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="E51" s="8">
-        <v>0</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="F51" s="8">
-        <v>3.1600000000000003E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="G51" s="8">
-        <v>1.9199999999999998E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="H51" s="8">
-        <v>1.4500000000000001E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="I51" s="8">
-        <v>1.6899999999999998E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="J51" s="8">
-        <v>1.7000000000000001E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="K51" s="8">
-        <v>4.2500000000000003E-2</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="L51" s="8">
-        <v>4.65E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="M51" s="8">
-        <v>4.0800000000000003E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="N51" s="8">
-        <v>4.6199999999999998E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="O51" s="8">
-        <v>4.5499999999999999E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="P51" s="8">
-        <v>1.8599999999999998E-2</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="Q51" s="8">
-        <v>2.4799999999999999E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="R51" s="8">
-        <v>5.0299999999999997E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="S51" s="8">
-        <v>2.2800000000000001E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="T51" s="8">
-        <v>3.6299999999999999E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="U51" s="8">
-        <v>6.4699999999999994E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="8">
-        <v>1.8499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C52" s="8">
-        <v>3.5299999999999998E-2</v>
+        <v>0.2</v>
       </c>
       <c r="D52" s="8">
-        <v>9.8799999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E52" s="8">
-        <v>5.2600000000000001E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="F52" s="8">
-        <v>7.9500000000000001E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="G52" s="8">
-        <v>5.6800000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="8">
-        <v>6.3799999999999996E-2</v>
+        <v>0.1053</v>
       </c>
       <c r="I52" s="8">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0.1429</v>
+      </c>
+      <c r="K52" s="8">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="M52" s="8">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="N52" s="8">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="O52" s="8">
+        <v>2.86E-2</v>
+      </c>
+      <c r="P52" s="8">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="J52" s="8">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="K52" s="8">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="L52" s="8">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M52" s="8">
+      <c r="Q52" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="R52" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="S52" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T52" s="8">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="N52" s="8">
-        <v>2.52E-2</v>
-      </c>
-      <c r="O52" s="8">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="P52" s="8">
-        <v>8.6400000000000005E-2</v>
-      </c>
-      <c r="Q52" s="8">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="R52" s="8">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="S52" s="8">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="T52" s="8">
-        <v>4.2700000000000002E-2</v>
-      </c>
       <c r="U52" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" s="8">
-        <v>0</v>
+        <v>4.58E-2</v>
       </c>
       <c r="C53" s="8">
-        <v>0.2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="D53" s="8">
-        <v>0</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="E53" s="8">
-        <v>0.1875</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="F53" s="8">
-        <v>7.1400000000000005E-2</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="G53" s="8">
-        <v>0</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="H53" s="8">
-        <v>0.1053</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="I53" s="8">
-        <v>5.8799999999999998E-2</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="J53" s="8">
-        <v>0.1429</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="K53" s="8">
-        <v>4.5499999999999999E-2</v>
+        <v>3.49E-2</v>
       </c>
       <c r="L53" s="8">
-        <v>0.15629999999999999</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="M53" s="8">
-        <v>4.3499999999999997E-2</v>
+        <v>6.0900000000000003E-2</v>
       </c>
       <c r="N53" s="8">
-        <v>4.1700000000000001E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="O53" s="8">
-        <v>2.86E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="P53" s="8">
-        <v>8.3299999999999999E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="Q53" s="8">
-        <v>0.05</v>
+        <v>1.95E-2</v>
       </c>
       <c r="R53" s="8">
-        <v>7.4999999999999997E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="S53" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="T53" s="8">
-        <v>2.7799999999999998E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="U53" s="8">
-        <v>6.6699999999999995E-2</v>
+        <v>1.72E-2</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="8">
-        <v>4.58E-2</v>
+        <v>0</v>
       </c>
       <c r="C54" s="8">
-        <v>3.2800000000000003E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="D54" s="8">
-        <v>4.8800000000000003E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="E54" s="8">
-        <v>3.9899999999999998E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="F54" s="8">
-        <v>5.8400000000000001E-2</v>
+        <v>6.4199999999999993E-2</v>
       </c>
       <c r="G54" s="8">
-        <v>5.2600000000000001E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="H54" s="8">
-        <v>7.2800000000000004E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="I54" s="8">
-        <v>6.3500000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J54" s="8">
-        <v>3.4299999999999997E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="K54" s="8">
-        <v>3.49E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L54" s="8">
-        <v>7.6100000000000001E-2</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="M54" s="8">
-        <v>6.0900000000000003E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="N54" s="8">
+        <v>4.07E-2</v>
+      </c>
+      <c r="O54" s="8">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="P54" s="8">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="Q54" s="8">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="O54" s="8">
-        <v>2.47E-2</v>
-      </c>
-      <c r="P54" s="8">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="Q54" s="8">
-        <v>1.95E-2</v>
-      </c>
       <c r="R54" s="8">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="S54" s="8">
-        <v>1.24E-2</v>
-      </c>
-      <c r="T54" s="8">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="U54" s="8">
-        <v>1.72E-2</v>
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8">
-        <v>0</v>
+        <v>0.12529999999999999</v>
       </c>
       <c r="C55" s="8">
-        <v>1.3899999999999999E-2</v>
+        <v>0.1208</v>
       </c>
       <c r="D55" s="8">
-        <v>3.5400000000000001E-2</v>
+        <v>0.12770000000000001</v>
       </c>
       <c r="E55" s="8">
-        <v>2.7799999999999998E-2</v>
+        <v>0.19420000000000001</v>
       </c>
       <c r="F55" s="8">
-        <v>6.4199999999999993E-2</v>
+        <v>0.13689999999999999</v>
       </c>
       <c r="G55" s="8">
-        <v>3.0300000000000001E-2</v>
+        <v>0.1321</v>
       </c>
       <c r="H55" s="8">
-        <v>4.48E-2</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="I55" s="8">
-        <v>3.9E-2</v>
+        <v>0.1043</v>
       </c>
       <c r="J55" s="8">
-        <v>1.7500000000000002E-2</v>
+        <v>0.18090000000000001</v>
       </c>
       <c r="K55" s="8">
-        <v>0.05</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="L55" s="8">
-        <v>9.7000000000000003E-3</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="M55" s="8">
-        <v>4.9000000000000002E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="N55" s="8">
-        <v>4.07E-2</v>
+        <v>0.1283</v>
       </c>
       <c r="O55" s="8">
-        <v>4.5100000000000001E-2</v>
+        <v>0.14449999999999999</v>
       </c>
       <c r="P55" s="8">
-        <v>5.7099999999999998E-2</v>
+        <v>0.1842</v>
       </c>
       <c r="Q55" s="8">
-        <v>3.4799999999999998E-2</v>
+        <v>0.17929999999999999</v>
       </c>
       <c r="R55" s="8">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U55" s="6" t="s">
-        <v>55</v>
+        <v>0.1449</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0.1368</v>
+      </c>
+      <c r="T55" s="8">
+        <v>0.1492</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0.1183</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="8">
-        <v>0.12529999999999999</v>
+        <v>0</v>
       </c>
       <c r="C56" s="8">
-        <v>0.1208</v>
+        <v>0.06</v>
       </c>
       <c r="D56" s="8">
-        <v>0.12770000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E56" s="8">
-        <v>0.19420000000000001</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="F56" s="8">
-        <v>0.13689999999999999</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="G56" s="8">
-        <v>0.1321</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="H56" s="8">
-        <v>7.7799999999999994E-2</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="I56" s="8">
-        <v>0.1043</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="J56" s="8">
-        <v>0.18090000000000001</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="K56" s="8">
-        <v>0.16700000000000001</v>
+        <v>2.24E-2</v>
       </c>
       <c r="L56" s="8">
-        <v>3.8300000000000001E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="M56" s="8">
-        <v>7.1400000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="N56" s="8">
-        <v>0.1283</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="O56" s="8">
-        <v>0.14449999999999999</v>
+        <v>3.95E-2</v>
       </c>
       <c r="P56" s="8">
-        <v>0.1842</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="Q56" s="8">
-        <v>0.17929999999999999</v>
+        <v>5.9900000000000002E-2</v>
       </c>
       <c r="R56" s="8">
-        <v>0.1449</v>
+        <v>0.57440000000000002</v>
       </c>
       <c r="S56" s="8">
-        <v>0.1368</v>
+        <v>0.1018</v>
       </c>
       <c r="T56" s="8">
-        <v>0.1492</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="U56" s="8">
-        <v>0.1183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="8">
-        <v>0</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="D57" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E57" s="8">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="F57" s="8">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="G57" s="8">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="H57" s="8">
-        <v>5.0599999999999999E-2</v>
-      </c>
-      <c r="I57" s="8">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="J57" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="K57" s="8">
-        <v>2.24E-2</v>
-      </c>
-      <c r="L57" s="8">
-        <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="M57" s="8">
-        <v>0</v>
-      </c>
-      <c r="N57" s="8">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="O57" s="8">
-        <v>3.95E-2</v>
-      </c>
-      <c r="P57" s="8">
-        <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="Q57" s="8">
-        <v>5.9900000000000002E-2</v>
-      </c>
-      <c r="R57" s="8">
-        <v>0.57440000000000002</v>
-      </c>
-      <c r="S57" s="8">
-        <v>0.1018</v>
-      </c>
-      <c r="T57" s="8">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="U57" s="8">
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
@@ -23135,11 +22745,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y30" sqref="Y30"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26075,55 +25685,55 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4">
-        <v>1</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>55</v>
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.79169999999999996</v>
       </c>
       <c r="F46" s="4">
-        <v>1</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="G46" s="4">
-        <v>1</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>55</v>
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.88239999999999996</v>
       </c>
       <c r="J46" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>55</v>
+        <v>0.875</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0.9143</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0.75</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>55</v>
@@ -26140,61 +25750,61 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4">
-        <v>0.77780000000000005</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.93330000000000002</v>
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D47" s="4">
-        <v>0.81820000000000004</v>
+        <v>0</v>
       </c>
       <c r="E47" s="4">
-        <v>0.79169999999999996</v>
+        <v>0.6875</v>
       </c>
       <c r="F47" s="4">
-        <v>0.82350000000000001</v>
+        <v>0.80259999999999998</v>
       </c>
       <c r="G47" s="4">
-        <v>0.93330000000000002</v>
+        <v>0.84560000000000002</v>
       </c>
       <c r="H47" s="4">
-        <v>0.96550000000000002</v>
+        <v>0.81130000000000002</v>
       </c>
       <c r="I47" s="4">
-        <v>0.88239999999999996</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="J47" s="4">
-        <v>0.875</v>
+        <v>0.87739999999999996</v>
       </c>
       <c r="K47" s="4">
-        <v>0.85709999999999997</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="L47" s="4">
-        <v>0.84089999999999998</v>
+        <v>0.84460000000000002</v>
       </c>
       <c r="M47" s="4">
-        <v>0.89829999999999999</v>
+        <v>0.78969999999999996</v>
       </c>
       <c r="N47" s="4">
-        <v>0.89739999999999998</v>
+        <v>0.90049999999999997</v>
       </c>
       <c r="O47" s="4">
-        <v>0.9143</v>
+        <v>0.8821</v>
       </c>
       <c r="P47" s="4">
-        <v>0.92310000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>55</v>
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="S47" s="4">
+        <v>0.9</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>55</v>
@@ -26205,61 +25815,61 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>55</v>
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.52059999999999995</v>
       </c>
       <c r="D48" s="4">
-        <v>0</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="E48" s="4">
-        <v>0.6875</v>
+        <v>0.8488</v>
       </c>
       <c r="F48" s="4">
-        <v>0.80259999999999998</v>
+        <v>0.79649999999999999</v>
       </c>
       <c r="G48" s="4">
-        <v>0.84560000000000002</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="H48" s="4">
-        <v>0.81130000000000002</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="I48" s="4">
-        <v>0.88890000000000002</v>
+        <v>0.90990000000000004</v>
       </c>
       <c r="J48" s="4">
-        <v>0.87739999999999996</v>
+        <v>0.9</v>
       </c>
       <c r="K48" s="4">
-        <v>0.89090000000000003</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="L48" s="4">
-        <v>0.84460000000000002</v>
+        <v>0.93510000000000004</v>
       </c>
       <c r="M48" s="4">
-        <v>0.78969999999999996</v>
+        <v>1.1127</v>
       </c>
       <c r="N48" s="4">
-        <v>0.90049999999999997</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="O48" s="4">
-        <v>0.8821</v>
+        <v>0.93620000000000003</v>
       </c>
       <c r="P48" s="4">
-        <v>0.9</v>
+        <v>0.91769999999999996</v>
       </c>
       <c r="Q48" s="4">
-        <v>0.77510000000000001</v>
+        <v>0.96489999999999998</v>
       </c>
       <c r="R48" s="4">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="S48" s="4">
-        <v>0.9</v>
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>55</v>
@@ -26270,58 +25880,58 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4">
-        <v>0.64780000000000004</v>
+        <v>0.2321</v>
       </c>
       <c r="C49" s="4">
-        <v>0.52059999999999995</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D49" s="4">
-        <v>0.86670000000000003</v>
+        <v>0.48920000000000002</v>
       </c>
       <c r="E49" s="4">
-        <v>0.8488</v>
+        <v>0.4</v>
       </c>
       <c r="F49" s="4">
-        <v>0.79649999999999999</v>
+        <v>0.48630000000000001</v>
       </c>
       <c r="G49" s="4">
-        <v>0.77200000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="H49" s="4">
-        <v>0.86670000000000003</v>
+        <v>0.6482</v>
       </c>
       <c r="I49" s="4">
-        <v>0.90990000000000004</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="J49" s="4">
-        <v>0.9</v>
+        <v>0.6593</v>
       </c>
       <c r="K49" s="4">
-        <v>0.91249999999999998</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="L49" s="4">
-        <v>0.93510000000000004</v>
+        <v>0.60250000000000004</v>
       </c>
       <c r="M49" s="4">
-        <v>1.1127</v>
+        <v>0.61439999999999995</v>
       </c>
       <c r="N49" s="4">
-        <v>0.95409999999999995</v>
+        <v>0.91739999999999999</v>
       </c>
       <c r="O49" s="4">
-        <v>0.93620000000000003</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="P49" s="4">
-        <v>0.91769999999999996</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="Q49" s="4">
-        <v>0.96489999999999998</v>
-      </c>
-      <c r="R49" s="4">
-        <v>0.92759999999999998</v>
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>55</v>
@@ -26335,55 +25945,55 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4">
-        <v>0.2321</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C50" s="4">
-        <v>0.55900000000000005</v>
+        <v>1</v>
       </c>
       <c r="D50" s="4">
-        <v>0.48920000000000002</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4">
-        <v>0.4</v>
+        <v>0.85450000000000004</v>
       </c>
       <c r="F50" s="4">
-        <v>0.48630000000000001</v>
+        <v>0.76919999999999999</v>
       </c>
       <c r="G50" s="4">
-        <v>0.65</v>
+        <v>0.9143</v>
       </c>
       <c r="H50" s="4">
-        <v>0.6482</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="I50" s="4">
-        <v>0.68489999999999995</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="J50" s="4">
-        <v>0.6593</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="K50" s="4">
-        <v>0.60299999999999998</v>
+        <v>0.96230000000000004</v>
       </c>
       <c r="L50" s="4">
-        <v>0.60250000000000004</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="M50" s="4">
-        <v>0.61439999999999995</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="N50" s="4">
-        <v>0.91739999999999999</v>
+        <v>0.89890000000000003</v>
       </c>
       <c r="O50" s="4">
-        <v>0.91800000000000004</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="P50" s="4">
-        <v>0.79200000000000004</v>
+        <v>0.73740000000000006</v>
       </c>
       <c r="Q50" s="4">
-        <v>0.83750000000000002</v>
+        <v>0.71909999999999996</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>55</v>
@@ -26400,10 +26010,10 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4">
-        <v>0.72899999999999998</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -26412,43 +26022,43 @@
         <v>1</v>
       </c>
       <c r="E51" s="4">
-        <v>0.85450000000000004</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0.76919999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="G51" s="4">
-        <v>0.9143</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4">
-        <v>0.90159999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="I51" s="4">
-        <v>0.81399999999999995</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4">
-        <v>0.87690000000000001</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4">
-        <v>0.96230000000000004</v>
+        <v>1</v>
       </c>
       <c r="L51" s="4">
-        <v>0.88460000000000005</v>
+        <v>1</v>
       </c>
       <c r="M51" s="4">
-        <v>0.83499999999999996</v>
+        <v>1</v>
       </c>
       <c r="N51" s="4">
-        <v>0.89890000000000003</v>
+        <v>1</v>
       </c>
       <c r="O51" s="4">
-        <v>0.91300000000000003</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="P51" s="4">
-        <v>0.73740000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="Q51" s="4">
-        <v>0.71909999999999996</v>
+        <v>1</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>55</v>
@@ -26465,31 +26075,31 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.45450000000000002</v>
+        <v>48</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>55</v>
+      <c r="F52" s="4">
+        <v>0.77780000000000005</v>
       </c>
       <c r="G52" s="4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H52" s="4">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="I52" s="4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J52" s="4">
         <v>1</v>
@@ -26498,22 +26108,22 @@
         <v>1</v>
       </c>
       <c r="L52" s="4">
-        <v>1</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="M52" s="4">
         <v>1</v>
       </c>
       <c r="N52" s="4">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="P52" s="4">
         <v>1</v>
       </c>
-      <c r="O52" s="4">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="P52" s="4">
-        <v>0.8</v>
-      </c>
       <c r="Q52" s="4">
-        <v>1</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>55</v>
@@ -26530,55 +26140,55 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.49469999999999997</v>
       </c>
       <c r="C53" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D53" s="4">
-        <v>0.66669999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="E53" s="4">
-        <v>1</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="F53" s="4">
-        <v>0.77780000000000005</v>
+        <v>0.72219999999999995</v>
       </c>
       <c r="G53" s="4">
-        <v>0.875</v>
+        <v>0.4783</v>
       </c>
       <c r="H53" s="4">
-        <v>0.66669999999999996</v>
+        <v>0.68089999999999995</v>
       </c>
       <c r="I53" s="4">
-        <v>0.875</v>
+        <v>0.69420000000000004</v>
       </c>
       <c r="J53" s="4">
-        <v>1</v>
+        <v>0.59460000000000002</v>
       </c>
       <c r="K53" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L53" s="4">
-        <v>0.88239999999999996</v>
+        <v>0.7349</v>
       </c>
       <c r="M53" s="4">
-        <v>1</v>
+        <v>0.80459999999999998</v>
       </c>
       <c r="N53" s="4">
-        <v>0.93330000000000002</v>
+        <v>0.87760000000000005</v>
       </c>
       <c r="O53" s="4">
-        <v>0.82609999999999995</v>
+        <v>0.88680000000000003</v>
       </c>
       <c r="P53" s="4">
-        <v>1</v>
+        <v>0.85389999999999999</v>
       </c>
       <c r="Q53" s="4">
-        <v>0.83330000000000004</v>
+        <v>0.89229999999999998</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>55</v>
@@ -26595,55 +26205,55 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4">
-        <v>0.49469999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="C54" s="4">
-        <v>0.5</v>
+        <v>0.8125</v>
       </c>
       <c r="D54" s="4">
-        <v>0.75</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="E54" s="4">
-        <v>0.55559999999999998</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="F54" s="4">
-        <v>0.72219999999999995</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="G54" s="4">
-        <v>0.4783</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="H54" s="4">
-        <v>0.68089999999999995</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="I54" s="4">
-        <v>0.69420000000000004</v>
+        <v>0.84209999999999996</v>
       </c>
       <c r="J54" s="4">
-        <v>0.59460000000000002</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="K54" s="4">
-        <v>0.8</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="L54" s="4">
-        <v>0.7349</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="M54" s="4">
-        <v>0.80459999999999998</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="N54" s="4">
-        <v>0.87760000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="O54" s="4">
-        <v>0.88680000000000003</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="P54" s="4">
-        <v>0.85389999999999999</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="Q54" s="4">
-        <v>0.89229999999999998</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>55</v>
@@ -26660,55 +26270,55 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="4">
-        <v>0.2</v>
+        <v>0.34820000000000001</v>
       </c>
       <c r="C55" s="4">
-        <v>0.8125</v>
+        <v>0.70809999999999995</v>
       </c>
       <c r="D55" s="4">
-        <v>0.63639999999999997</v>
+        <v>1</v>
       </c>
       <c r="E55" s="4">
-        <v>0.88460000000000005</v>
+        <v>0.8679</v>
       </c>
       <c r="F55" s="4">
-        <v>0.93100000000000005</v>
+        <v>0.85419999999999996</v>
       </c>
       <c r="G55" s="4">
-        <v>0.92859999999999998</v>
+        <v>0.6905</v>
       </c>
       <c r="H55" s="4">
-        <v>0.90910000000000002</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="I55" s="4">
-        <v>0.84209999999999996</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="J55" s="4">
-        <v>0.85189999999999999</v>
+        <v>0.92159999999999997</v>
       </c>
       <c r="K55" s="4">
-        <v>0.93330000000000002</v>
+        <v>0.90569999999999995</v>
       </c>
       <c r="L55" s="4">
-        <v>0.92310000000000003</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="M55" s="4">
-        <v>0.86670000000000003</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="N55" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="O55" s="4">
-        <v>0.86960000000000004</v>
-      </c>
-      <c r="P55" s="4">
-        <v>0.78569999999999995</v>
-      </c>
-      <c r="Q55" s="4">
-        <v>0.85189999999999999</v>
+        <v>0.8286</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="R55" s="3" t="s">
         <v>55</v>
@@ -26725,55 +26335,55 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4">
-        <v>0.34820000000000001</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="C56" s="4">
-        <v>0.70809999999999995</v>
+        <v>0.85450000000000004</v>
       </c>
       <c r="D56" s="4">
+        <v>0.7349</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.87690000000000001</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="M56" s="4">
         <v>1</v>
       </c>
-      <c r="E56" s="4">
-        <v>0.8679</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0.85419999999999996</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0.6905</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0.86670000000000003</v>
-      </c>
-      <c r="J56" s="4">
-        <v>0.92159999999999997</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="L56" s="4">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="M56" s="4">
-        <v>0.97299999999999998</v>
-      </c>
       <c r="N56" s="4">
-        <v>0.8286</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>55</v>
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="O56" s="4">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="P56" s="4">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>0.96550000000000002</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>55</v>
@@ -26785,71 +26395,6 @@
         <v>55</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="4">
-        <v>0.42859999999999998</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0.85450000000000004</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0.7349</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0.871</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0.87690000000000001</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0.89580000000000004</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0.89890000000000003</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0.84909999999999997</v>
-      </c>
-      <c r="L57" s="4">
-        <v>0.9375</v>
-      </c>
-      <c r="M57" s="4">
-        <v>1</v>
-      </c>
-      <c r="N57" s="4">
-        <v>0.75360000000000005</v>
-      </c>
-      <c r="O57" s="4">
-        <v>0.77270000000000005</v>
-      </c>
-      <c r="P57" s="4">
-        <v>0.88639999999999997</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>0.96550000000000002</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U57" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -26866,11 +26411,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA30" sqref="AA30"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29806,55 +29351,55 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4">
-        <v>0</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.16669999999999999</v>
       </c>
       <c r="F46" s="4">
-        <v>0</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="G46" s="4">
-        <v>0</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>55</v>
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.1176</v>
       </c>
       <c r="J46" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>55</v>
+        <v>0.125</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.1429</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0.1017</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0.1026</v>
+      </c>
+      <c r="O46" s="4">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="P46" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0.21879999999999999</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>55</v>
@@ -29871,61 +29416,61 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D47" s="4">
-        <v>0.18179999999999999</v>
+        <v>1</v>
       </c>
       <c r="E47" s="4">
-        <v>0.16669999999999999</v>
+        <v>0.3125</v>
       </c>
       <c r="F47" s="4">
-        <v>0.14710000000000001</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="G47" s="4">
-        <v>6.6699999999999995E-2</v>
+        <v>0.11409999999999999</v>
       </c>
       <c r="H47" s="4">
-        <v>3.4500000000000003E-2</v>
+        <v>0.16039999999999999</v>
       </c>
       <c r="I47" s="4">
-        <v>0.1176</v>
+        <v>0.1111</v>
       </c>
       <c r="J47" s="4">
-        <v>0.125</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="K47" s="4">
-        <v>0.1429</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="L47" s="4">
-        <v>0.11360000000000001</v>
+        <v>0.1216</v>
       </c>
       <c r="M47" s="4">
-        <v>0.1017</v>
+        <v>0.19839999999999999</v>
       </c>
       <c r="N47" s="4">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="O47" s="4">
         <v>0.1026</v>
       </c>
-      <c r="O47" s="4">
-        <v>8.5699999999999998E-2</v>
-      </c>
       <c r="P47" s="4">
-        <v>7.6899999999999996E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Q47" s="4">
-        <v>0.21879999999999999</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>55</v>
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0.1489</v>
+      </c>
+      <c r="S47" s="4">
+        <v>0.1</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>55</v>
@@ -29936,61 +29481,61 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4">
-        <v>0.42309999999999998</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>55</v>
+        <v>0.3261</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.42270000000000002</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E48" s="4">
-        <v>0.3125</v>
+        <v>0.1512</v>
       </c>
       <c r="F48" s="4">
-        <v>0.13159999999999999</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="G48" s="4">
-        <v>0.11409999999999999</v>
+        <v>0.20730000000000001</v>
       </c>
       <c r="H48" s="4">
-        <v>0.16039999999999999</v>
+        <v>0.1152</v>
       </c>
       <c r="I48" s="4">
-        <v>0.1111</v>
+        <v>8.1100000000000005E-2</v>
       </c>
       <c r="J48" s="4">
-        <v>9.0300000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K48" s="4">
-        <v>9.0899999999999995E-2</v>
+        <v>6.88E-2</v>
       </c>
       <c r="L48" s="4">
-        <v>0.1216</v>
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="M48" s="4">
-        <v>0.19839999999999999</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="N48" s="4">
-        <v>8.9599999999999999E-2</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="O48" s="4">
-        <v>0.1026</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="P48" s="4">
-        <v>8.7999999999999995E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="Q48" s="4">
-        <v>0.20080000000000001</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="R48" s="4">
-        <v>0.1489</v>
-      </c>
-      <c r="S48" s="4">
-        <v>0.1</v>
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>55</v>
@@ -30001,58 +29546,58 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4">
-        <v>0.3261</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="C49" s="4">
-        <v>0.42270000000000002</v>
+        <v>0.34060000000000001</v>
       </c>
       <c r="D49" s="4">
-        <v>0.1</v>
+        <v>0.40260000000000001</v>
       </c>
       <c r="E49" s="4">
-        <v>0.1512</v>
+        <v>0.4667</v>
       </c>
       <c r="F49" s="4">
-        <v>0.19189999999999999</v>
+        <v>0.43919999999999998</v>
       </c>
       <c r="G49" s="4">
-        <v>0.20730000000000001</v>
+        <v>0.2792</v>
       </c>
       <c r="H49" s="4">
-        <v>0.1152</v>
+        <v>0.28660000000000002</v>
       </c>
       <c r="I49" s="4">
-        <v>8.1100000000000005E-2</v>
+        <v>0.21920000000000001</v>
       </c>
       <c r="J49" s="4">
-        <v>0.1</v>
+        <v>0.21609999999999999</v>
       </c>
       <c r="K49" s="4">
-        <v>6.88E-2</v>
+        <v>0.2545</v>
       </c>
       <c r="L49" s="4">
-        <v>6.4899999999999999E-2</v>
+        <v>0.27589999999999998</v>
       </c>
       <c r="M49" s="4">
-        <v>0.59150000000000003</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="N49" s="4">
-        <v>4.5900000000000003E-2</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="O49" s="4">
-        <v>5.8500000000000003E-2</v>
+        <v>5.57E-2</v>
       </c>
       <c r="P49" s="4">
-        <v>6.3299999999999995E-2</v>
+        <v>0.15490000000000001</v>
       </c>
       <c r="Q49" s="4">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="R49" s="4">
-        <v>7.2400000000000006E-2</v>
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>55</v>
@@ -30066,55 +29611,55 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4">
-        <v>0.66510000000000002</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="C50" s="4">
-        <v>0.34060000000000001</v>
+        <v>0</v>
       </c>
       <c r="D50" s="4">
-        <v>0.40260000000000001</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>0.4667</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="F50" s="4">
-        <v>0.43919999999999998</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="G50" s="4">
-        <v>0.2792</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="H50" s="4">
-        <v>0.28660000000000002</v>
+        <v>9.8400000000000001E-2</v>
       </c>
       <c r="I50" s="4">
-        <v>0.21920000000000001</v>
+        <v>0.1628</v>
       </c>
       <c r="J50" s="4">
-        <v>0.21609999999999999</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="K50" s="4">
-        <v>0.2545</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="L50" s="4">
-        <v>0.27589999999999998</v>
+        <v>0.1154</v>
       </c>
       <c r="M50" s="4">
-        <v>0.30499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="N50" s="4">
-        <v>5.3699999999999998E-2</v>
+        <v>0.1011</v>
       </c>
       <c r="O50" s="4">
-        <v>5.57E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="P50" s="4">
-        <v>0.15490000000000001</v>
+        <v>0.2626</v>
       </c>
       <c r="Q50" s="4">
-        <v>0.14380000000000001</v>
+        <v>0.2697</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>55</v>
@@ -30131,10 +29676,10 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4">
-        <v>0.24299999999999999</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -30143,43 +29688,43 @@
         <v>0</v>
       </c>
       <c r="E51" s="4">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0.23080000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="G51" s="4">
-        <v>7.1400000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="H51" s="4">
-        <v>9.8400000000000001E-2</v>
+        <v>0.5</v>
       </c>
       <c r="I51" s="4">
-        <v>0.1628</v>
+        <v>0</v>
       </c>
       <c r="J51" s="4">
-        <v>9.2299999999999993E-2</v>
+        <v>0</v>
       </c>
       <c r="K51" s="4">
-        <v>3.7699999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="L51" s="4">
-        <v>0.1154</v>
+        <v>0</v>
       </c>
       <c r="M51" s="4">
-        <v>0.16500000000000001</v>
+        <v>0</v>
       </c>
       <c r="N51" s="4">
-        <v>0.1011</v>
+        <v>0</v>
       </c>
       <c r="O51" s="4">
-        <v>8.6999999999999994E-2</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="P51" s="4">
-        <v>0.2626</v>
+        <v>0.2</v>
       </c>
       <c r="Q51" s="4">
-        <v>0.2697</v>
+        <v>0</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>55</v>
@@ -30196,31 +29741,31 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.54549999999999998</v>
+        <v>48</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
       </c>
       <c r="D52" s="4">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>55</v>
+      <c r="F52" s="4">
+        <v>0.22220000000000001</v>
       </c>
       <c r="G52" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H52" s="4">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="I52" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J52" s="4">
         <v>0</v>
@@ -30229,22 +29774,22 @@
         <v>0</v>
       </c>
       <c r="L52" s="4">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="M52" s="4">
         <v>0</v>
       </c>
       <c r="N52" s="4">
-        <v>0</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="O52" s="4">
-        <v>0.33329999999999999</v>
+        <v>0.1739</v>
       </c>
       <c r="P52" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="4">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>55</v>
@@ -30261,55 +29806,55 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.46710000000000002</v>
       </c>
       <c r="C53" s="4">
-        <v>0</v>
+        <v>0.34210000000000002</v>
       </c>
       <c r="D53" s="4">
-        <v>0.33329999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="E53" s="4">
-        <v>0</v>
+        <v>0.29630000000000001</v>
       </c>
       <c r="F53" s="4">
-        <v>0.22220000000000001</v>
+        <v>0.27779999999999999</v>
       </c>
       <c r="G53" s="4">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="H53" s="4">
-        <v>0.33329999999999999</v>
+        <v>0.2979</v>
       </c>
       <c r="I53" s="4">
-        <v>0.125</v>
+        <v>0.2727</v>
       </c>
       <c r="J53" s="4">
-        <v>0</v>
+        <v>0.40539999999999998</v>
       </c>
       <c r="K53" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L53" s="4">
-        <v>0.1176</v>
+        <v>0.253</v>
       </c>
       <c r="M53" s="4">
-        <v>0</v>
+        <v>0.19539999999999999</v>
       </c>
       <c r="N53" s="4">
-        <v>6.6699999999999995E-2</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="O53" s="4">
-        <v>0.1739</v>
+        <v>0.1132</v>
       </c>
       <c r="P53" s="4">
-        <v>0</v>
+        <v>0.14610000000000001</v>
       </c>
       <c r="Q53" s="4">
-        <v>0.16669999999999999</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>55</v>
@@ -30326,55 +29871,55 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4">
-        <v>0.46710000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="C54" s="4">
-        <v>0.34210000000000002</v>
+        <v>0.1875</v>
       </c>
       <c r="D54" s="4">
-        <v>0.16669999999999999</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="E54" s="4">
-        <v>0.29630000000000001</v>
+        <v>0.1154</v>
       </c>
       <c r="F54" s="4">
-        <v>0.27779999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="G54" s="4">
-        <v>0.5</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="H54" s="4">
-        <v>0.2979</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="I54" s="4">
-        <v>0.2727</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="J54" s="4">
-        <v>0.40539999999999998</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="K54" s="4">
-        <v>0.2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="L54" s="4">
-        <v>0.253</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="M54" s="4">
-        <v>0.19539999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="N54" s="4">
-        <v>0.12239999999999999</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="O54" s="4">
-        <v>0.1132</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="P54" s="4">
-        <v>0.14610000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="4">
-        <v>9.2299999999999993E-2</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>55</v>
@@ -30391,55 +29936,55 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="4">
-        <v>0.8</v>
+        <v>0.50819999999999999</v>
       </c>
       <c r="C55" s="4">
-        <v>0.1875</v>
+        <v>0.29189999999999999</v>
       </c>
       <c r="D55" s="4">
-        <v>0.36359999999999998</v>
+        <v>0</v>
       </c>
       <c r="E55" s="4">
-        <v>0.1154</v>
+        <v>0.1321</v>
       </c>
       <c r="F55" s="4">
-        <v>6.9000000000000006E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G55" s="4">
-        <v>4.7600000000000003E-2</v>
+        <v>0.1905</v>
       </c>
       <c r="H55" s="4">
-        <v>9.0899999999999995E-2</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="I55" s="4">
-        <v>0.15790000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="J55" s="4">
-        <v>0.14810000000000001</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="K55" s="4">
-        <v>6.6699999999999995E-2</v>
+        <v>9.4299999999999995E-2</v>
       </c>
       <c r="L55" s="4">
-        <v>7.6899999999999996E-2</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="M55" s="4">
-        <v>8.3299999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N55" s="4">
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="O55" s="4">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="P55" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="4">
-        <v>0.14810000000000001</v>
+        <v>0.1714</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="R55" s="3" t="s">
         <v>55</v>
@@ -30456,55 +30001,55 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4">
-        <v>0.50819999999999999</v>
+        <v>0.53059999999999996</v>
       </c>
       <c r="C56" s="4">
-        <v>0.29189999999999999</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="D56" s="4">
-        <v>0</v>
+        <v>0.253</v>
       </c>
       <c r="E56" s="4">
-        <v>0.1321</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F56" s="4">
-        <v>0.125</v>
+        <v>9.6799999999999997E-2</v>
       </c>
       <c r="G56" s="4">
-        <v>0.1905</v>
+        <v>0.1231</v>
       </c>
       <c r="H56" s="4">
-        <v>0.15379999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="I56" s="4">
-        <v>0.1</v>
+        <v>0.1011</v>
       </c>
       <c r="J56" s="4">
-        <v>7.8399999999999997E-2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="K56" s="4">
-        <v>9.4299999999999995E-2</v>
+        <v>0.15090000000000001</v>
       </c>
       <c r="L56" s="4">
-        <v>9.5200000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M56" s="4">
-        <v>2.7E-2</v>
+        <v>0</v>
       </c>
       <c r="N56" s="4">
-        <v>0.1714</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>55</v>
+        <v>0.1014</v>
+      </c>
+      <c r="O56" s="4">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="P56" s="4">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>0</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>55</v>
@@ -30516,71 +30061,6 @@
         <v>55</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="4">
-        <v>0.53059999999999996</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0.253</v>
-      </c>
-      <c r="E57" s="4">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F57" s="4">
-        <v>9.6799999999999997E-2</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0.1231</v>
-      </c>
-      <c r="H57" s="4">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0.1011</v>
-      </c>
-      <c r="J57" s="4">
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="L57" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="M57" s="4">
-        <v>0</v>
-      </c>
-      <c r="N57" s="4">
-        <v>0.1014</v>
-      </c>
-      <c r="O57" s="4">
-        <v>6.8199999999999997E-2</v>
-      </c>
-      <c r="P57" s="4">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U57" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -30597,11 +30077,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W19" sqref="W19"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -33537,22 +33017,22 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>55</v>
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="F46" s="4">
-        <v>0</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
@@ -33560,32 +33040,32 @@
       <c r="H46" s="4">
         <v>0</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>55</v>
+      <c r="I46" s="4">
+        <v>0</v>
       </c>
       <c r="J46" s="4">
         <v>0</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>55</v>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>55</v>
@@ -33602,61 +33082,61 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4">
-        <v>0</v>
-      </c>
-      <c r="C47" s="4">
-        <v>6.6699999999999995E-2</v>
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
       </c>
       <c r="E47" s="4">
-        <v>4.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F47" s="4">
-        <v>2.9399999999999999E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="G47" s="4">
-        <v>0</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="H47" s="4">
-        <v>0</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="I47" s="4">
         <v>0</v>
       </c>
       <c r="J47" s="4">
-        <v>0</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="K47" s="4">
-        <v>0</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="L47" s="4">
-        <v>4.5499999999999999E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="M47" s="4">
-        <v>0</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="N47" s="4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O47" s="4">
-        <v>0</v>
+        <v>1.54E-2</v>
       </c>
       <c r="P47" s="4">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="Q47" s="4">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>55</v>
+        <v>2.41E-2</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0</v>
+      </c>
+      <c r="S47" s="4">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>55</v>
@@ -33667,61 +33147,61 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>55</v>
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="C48" s="4">
+        <v>5.67E-2</v>
       </c>
       <c r="D48" s="4">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
       </c>
       <c r="F48" s="4">
-        <v>6.5799999999999997E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="G48" s="4">
-        <v>4.0300000000000002E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="H48" s="4">
-        <v>2.8299999999999999E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="I48" s="4">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J48" s="4">
-        <v>3.2300000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K48" s="4">
-        <v>1.8200000000000001E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="L48" s="4">
-        <v>3.3799999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="M48" s="4">
-        <v>1.1900000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N48" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O48" s="4">
-        <v>1.54E-2</v>
+        <v>5.3E-3</v>
       </c>
       <c r="P48" s="4">
-        <v>1.2E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="Q48" s="4">
-        <v>2.41E-2</v>
+        <v>0</v>
       </c>
       <c r="R48" s="4">
         <v>0</v>
       </c>
-      <c r="S48" s="4">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>55</v>
@@ -33732,58 +33212,58 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4">
-        <v>2.6100000000000002E-2</v>
+        <v>0.10290000000000001</v>
       </c>
       <c r="C49" s="4">
-        <v>5.67E-2</v>
+        <v>0.1004</v>
       </c>
       <c r="D49" s="4">
-        <v>3.3300000000000003E-2</v>
+        <v>0.1082</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
+        <v>0.1333</v>
       </c>
       <c r="F49" s="4">
-        <v>1.1599999999999999E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="G49" s="4">
-        <v>2.07E-2</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="H49" s="4">
-        <v>1.8200000000000001E-2</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="I49" s="4">
-        <v>8.9999999999999993E-3</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="J49" s="4">
-        <v>0</v>
+        <v>0.1245</v>
       </c>
       <c r="K49" s="4">
+        <v>0.1424</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0.1215</v>
+      </c>
+      <c r="M49" s="4">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="N49" s="4">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="O49" s="4">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="P49" s="4">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="Q49" s="4">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="L49" s="4">
-        <v>0</v>
-      </c>
-      <c r="M49" s="4">
-        <v>0</v>
-      </c>
-      <c r="N49" s="4">
-        <v>0</v>
-      </c>
-      <c r="O49" s="4">
-        <v>5.3E-3</v>
-      </c>
-      <c r="P49" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>0</v>
-      </c>
-      <c r="R49" s="4">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>55</v>
@@ -33797,55 +33277,55 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4">
-        <v>0.10290000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C50" s="4">
-        <v>0.1004</v>
+        <v>0</v>
       </c>
       <c r="D50" s="4">
-        <v>0.1082</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>0.1333</v>
+        <v>0</v>
       </c>
       <c r="F50" s="4">
-        <v>7.4499999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G50" s="4">
-        <v>7.0800000000000002E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="H50" s="4">
-        <v>6.5100000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="I50" s="4">
-        <v>9.5899999999999999E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="J50" s="4">
-        <v>0.1245</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="K50" s="4">
-        <v>0.1424</v>
+        <v>0</v>
       </c>
       <c r="L50" s="4">
-        <v>0.1215</v>
+        <v>0</v>
       </c>
       <c r="M50" s="4">
-        <v>8.0600000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="N50" s="4">
-        <v>2.8899999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="O50" s="4">
-        <v>2.6200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P50" s="4">
-        <v>5.3100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="4">
-        <v>1.8800000000000001E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>55</v>
@@ -33862,10 +33342,10 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -33876,20 +33356,20 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="4">
-        <v>0</v>
+      <c r="F51" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="G51" s="4">
-        <v>1.43E-2</v>
+        <v>0</v>
       </c>
       <c r="H51" s="4">
         <v>0</v>
       </c>
       <c r="I51" s="4">
-        <v>2.3300000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J51" s="4">
-        <v>3.0800000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K51" s="4">
         <v>0</v>
@@ -33910,7 +33390,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="4">
-        <v>1.12E-2</v>
+        <v>0</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>55</v>
@@ -33927,10 +33407,10 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
@@ -33941,8 +33421,8 @@
       <c r="E52" s="4">
         <v>0</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>55</v>
+      <c r="F52" s="4">
+        <v>0</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
@@ -33992,31 +33472,31 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="B53" s="4">
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="C53" s="4">
-        <v>0</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="D53" s="4">
-        <v>0</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="E53" s="4">
-        <v>0</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
       </c>
       <c r="G53" s="4">
-        <v>0</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="H53" s="4">
-        <v>0</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="I53" s="4">
-        <v>0</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="J53" s="4">
         <v>0</v>
@@ -34025,7 +33505,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="M53" s="4">
         <v>0</v>
@@ -34040,7 +33520,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="4">
-        <v>0</v>
+        <v>1.54E-2</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>55</v>
@@ -34057,31 +33537,31 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4">
-        <v>3.8199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C54" s="4">
-        <v>0.15790000000000001</v>
+        <v>0</v>
       </c>
       <c r="D54" s="4">
-        <v>8.3299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E54" s="4">
-        <v>0.14810000000000001</v>
+        <v>0</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
       </c>
       <c r="G54" s="4">
-        <v>2.1700000000000001E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="H54" s="4">
-        <v>2.1299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I54" s="4">
-        <v>3.3099999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J54" s="4">
         <v>0</v>
@@ -34090,22 +33570,22 @@
         <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="M54" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N54" s="4">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="O54" s="4">
-        <v>0</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="P54" s="4">
-        <v>0</v>
+        <v>0.21429999999999999</v>
       </c>
       <c r="Q54" s="4">
-        <v>1.54E-2</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>55</v>
@@ -34122,10 +33602,10 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="4">
-        <v>0</v>
+        <v>0.14360000000000001</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
@@ -34137,16 +33617,16 @@
         <v>0</v>
       </c>
       <c r="F55" s="4">
-        <v>0</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="G55" s="4">
-        <v>2.3800000000000002E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="H55" s="4">
         <v>0</v>
       </c>
       <c r="I55" s="4">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="J55" s="4">
         <v>0</v>
@@ -34158,19 +33638,19 @@
         <v>0</v>
       </c>
       <c r="M55" s="4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N55" s="4">
-        <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="O55" s="4">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="P55" s="4">
-        <v>0.21429999999999999</v>
-      </c>
-      <c r="Q55" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="R55" s="3" t="s">
         <v>55</v>
@@ -34187,55 +33667,55 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4">
-        <v>0.14360000000000001</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
       </c>
       <c r="D56" s="4">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
       </c>
       <c r="F56" s="4">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="G56" s="4">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
       <c r="I56" s="4">
-        <v>3.3300000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J56" s="4">
-        <v>0</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="K56" s="4">
         <v>0</v>
       </c>
       <c r="L56" s="4">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="M56" s="4">
         <v>0</v>
       </c>
       <c r="N56" s="4">
-        <v>0</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>55</v>
+        <v>0.1449</v>
+      </c>
+      <c r="O56" s="4">
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="P56" s="4">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>55</v>
@@ -34247,71 +33727,6 @@
         <v>55</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="4">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0</v>
-      </c>
-      <c r="H57" s="4">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0</v>
-      </c>
-      <c r="L57" s="4">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="M57" s="4">
-        <v>0</v>
-      </c>
-      <c r="N57" s="4">
-        <v>0.1449</v>
-      </c>
-      <c r="O57" s="4">
-        <v>0.15909999999999999</v>
-      </c>
-      <c r="P57" s="4">
-        <v>6.8199999999999997E-2</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U57" s="3" t="s">
         <v>55</v>
       </c>
     </row>
